--- a/mx/apps/tools/family-fee/design/前后端接口设计.xlsx
+++ b/mx/apps/tools/family-fee/design/前后端接口设计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="21500" windowHeight="16920" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="16340" windowHeight="16920" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="接口设计规范" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="125">
   <si>
     <t>DELETE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1019,6 +1019,137 @@
   </si>
   <si>
     <t>已完成</t>
+  </si>
+  <si>
+    <t>{
+"id: "",
+"name": "",
+"desc": "",
+"avatarUrl": ""
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <rPh sb="0" eb="1">
+      <t>w</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"id": "",
+"code": "",
+"name": "",
+"desc": "",
+"type": "",
+"ownerId": ""
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"id": "",
+"createdTime": 0,
+"updatedTime": 0,
+"operator": "",
+"valid": true,
+"code": "",
+"name": "",
+"desc": "",
+"type": "",
+"owner": {account}
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"id": "",
+"createdTime": 0,
+"updatedTime": 0,
+"operator": "",
+"valid": true,
+"name": "",
+"desc": "",
+"avatarUrl": "",
+"members": [{
+"id": "",
+"role: "",
+"account": {},
+"isOwner": true
+}]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"id": "",
+"desc": "",
+"courseId": "",
+"familyId": "",
+"year": 2019,
+"money": 0.0
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"id": "",
+"createdTime": 0,
+"updatedTime": 0,
+"operator": "",
+"valid": true,
+"year": 2018,
+"money": 0.0,
+"desc": "",
+"family": {family},
+"course": {course}
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"id": "",
+"familyId": "",
+"courseId": "",
+"desc": "",
+"ownerId": "",
+"money": 0.0,
+"occurTime": 0
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"id": "",
+"createdTime": 0,
+"updatedTime": 0,
+"operator": "",
+"valid": true,
+"occurTime": 0,
+"money": 0.0,
+"desc": "",
+"family": {family},
+"course": {course},
+"owner": {account}
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{
+"id": "",
+"createdTime": 0,
+"updatedTime": 0,
+"operator": "",
+"valid": true,
+"occurTime": 0,
+"money": 0.0,
+"desc": "",
+"family": {family},
+"course": {course},
+"owner": {account}
+}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1654,10 +1785,10 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C11" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1682,7 +1813,7 @@
       </c>
       <c r="D1" s="10">
         <f>COUNTIF(D7:D39, "已完成")</f>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1700,7 +1831,7 @@
       </c>
       <c r="D3" s="10">
         <f>COUNTIF(D7:D39, "未测试")</f>
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1871,7 +2002,7 @@
         <v>44</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>80</v>
@@ -1882,8 +2013,12 @@
       <c r="G11" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>119</v>
+      </c>
       <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -1895,7 +2030,7 @@
         <v>13</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>81</v>
@@ -1906,8 +2041,12 @@
       <c r="G12" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
+      <c r="H12" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>119</v>
+      </c>
       <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -1919,7 +2058,7 @@
         <v>13</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>81</v>
@@ -1930,8 +2069,12 @@
       <c r="G13" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>119</v>
+      </c>
       <c r="J13" s="3" t="s">
         <v>52</v>
       </c>
@@ -1945,7 +2088,7 @@
         <v>44</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>82</v>
@@ -1956,8 +2099,12 @@
       <c r="G14" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
+      <c r="H14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>119</v>
+      </c>
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -1982,8 +2129,12 @@
       <c r="G15" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+      <c r="H15" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>118</v>
+      </c>
       <c r="J15" s="3" t="s">
         <v>49</v>
       </c>
@@ -2008,8 +2159,12 @@
       <c r="G16" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
+      <c r="H16" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>118</v>
+      </c>
       <c r="J16" s="3" t="s">
         <v>49</v>
       </c>
@@ -2034,8 +2189,12 @@
       <c r="G17" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
+      <c r="H17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>118</v>
+      </c>
       <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2058,8 +2217,12 @@
       <c r="G18" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
+      <c r="H18" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>118</v>
+      </c>
       <c r="J18" s="3" t="s">
         <v>49</v>
       </c>
@@ -2084,8 +2247,12 @@
       <c r="G19" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
+      <c r="H19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>118</v>
+      </c>
       <c r="J19" s="3" t="s">
         <v>49</v>
       </c>
@@ -2112,8 +2279,12 @@
       <c r="G20" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
+      <c r="H20" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>121</v>
+      </c>
       <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2136,8 +2307,12 @@
       <c r="G21" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
+      <c r="H21" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>121</v>
+      </c>
       <c r="J21" s="3"/>
     </row>
     <row r="22" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2160,8 +2335,12 @@
       <c r="G22" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
+      <c r="H22" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>121</v>
+      </c>
       <c r="J22" s="3"/>
     </row>
     <row r="23" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2184,8 +2363,12 @@
       <c r="G23" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
+      <c r="H23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>121</v>
+      </c>
       <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2210,8 +2393,12 @@
       <c r="G24" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
+      <c r="H24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>124</v>
+      </c>
       <c r="J24" s="3"/>
     </row>
     <row r="25" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2234,8 +2421,12 @@
       <c r="G25" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
+      <c r="H25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>124</v>
+      </c>
       <c r="J25" s="3"/>
     </row>
     <row r="26" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2258,8 +2449,12 @@
       <c r="G26" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
+      <c r="H26" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>123</v>
+      </c>
       <c r="J26" s="3"/>
     </row>
     <row r="27" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2282,8 +2477,12 @@
       <c r="G27" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
+      <c r="H27" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>123</v>
+      </c>
       <c r="J27" s="3"/>
     </row>
     <row r="28" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2306,8 +2505,12 @@
       <c r="G28" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
+      <c r="H28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>123</v>
+      </c>
       <c r="J28" s="3"/>
     </row>
     <row r="29" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2332,8 +2535,12 @@
       <c r="G29" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
+      <c r="H29" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>124</v>
+      </c>
       <c r="J29" s="3"/>
     </row>
     <row r="30" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2356,8 +2563,12 @@
       <c r="G30" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
+      <c r="H30" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>124</v>
+      </c>
       <c r="J30" s="3"/>
     </row>
     <row r="31" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2380,8 +2591,12 @@
       <c r="G31" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
+      <c r="H31" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>124</v>
+      </c>
       <c r="J31" s="3"/>
     </row>
     <row r="32" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2404,8 +2619,12 @@
       <c r="G32" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
+      <c r="H32" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>124</v>
+      </c>
       <c r="J32" s="3"/>
     </row>
     <row r="33" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2428,8 +2647,12 @@
       <c r="G33" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
+      <c r="H33" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>123</v>
+      </c>
       <c r="J33" s="3"/>
     </row>
     <row r="34" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2452,8 +2675,12 @@
       <c r="G34" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
+      <c r="H34" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>123</v>
+      </c>
       <c r="J34" s="3"/>
     </row>
     <row r="35" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2476,8 +2703,12 @@
       <c r="G35" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
+      <c r="H35" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>123</v>
+      </c>
       <c r="J35" s="3"/>
     </row>
     <row r="36" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">

--- a/mx/apps/tools/family-fee/design/前后端接口设计.xlsx
+++ b/mx/apps/tools/family-fee/design/前后端接口设计.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="126">
   <si>
     <t>DELETE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1149,6 +1149,10 @@
 "course": {course},
 "owner": {account}
 }]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1781,14 +1785,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C11" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C23" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomRight" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1813,7 +1816,7 @@
       </c>
       <c r="D1" s="10">
         <f>COUNTIF(D7:D39, "已完成")</f>
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1831,7 +1834,7 @@
       </c>
       <c r="D3" s="10">
         <f>COUNTIF(D7:D39, "未测试")</f>
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1875,7 +1878,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>31</v>
       </c>
@@ -1907,7 +1910,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="3" t="s">
         <v>101</v>
@@ -1935,7 +1938,7 @@
       </c>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:10" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="3" t="s">
         <v>100</v>
@@ -1963,7 +1966,7 @@
       </c>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="3" t="s">
         <v>99</v>
@@ -2118,7 +2121,7 @@
         <v>44</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>84</v>
@@ -2148,7 +2151,7 @@
         <v>44</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>85</v>
@@ -2178,7 +2181,7 @@
         <v>44</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>86</v>
@@ -2206,7 +2209,7 @@
         <v>44</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>86</v>
@@ -2236,7 +2239,7 @@
         <v>44</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>86</v>
@@ -2268,7 +2271,7 @@
         <v>44</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>109</v>
@@ -2296,7 +2299,7 @@
         <v>44</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>87</v>
@@ -2324,7 +2327,7 @@
         <v>44</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>88</v>
@@ -2352,7 +2355,7 @@
         <v>44</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>88</v>
@@ -2382,7 +2385,7 @@
         <v>13</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>106</v>
@@ -2786,14 +2789,7 @@
       <c r="J39" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A6:J37">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="未测试"/>
-        <filter val="未开始"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A6:J37"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D38:D39">

--- a/mx/apps/tools/family-fee/design/前后端接口设计.xlsx
+++ b/mx/apps/tools/family-fee/design/前后端接口设计.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16340" windowHeight="16920" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="12240" windowHeight="16920" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="接口设计规范" sheetId="1" r:id="rId1"/>
     <sheet name="SERVICE 接口设计" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'SERVICE 接口设计'!$A$6:$J$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'SERVICE 接口设计'!$A$6:$J$38</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="128">
   <si>
     <t>DELETE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1153,6 +1153,32 @@
   </si>
   <si>
     <t>未测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取指定openId所属的家庭信息</t>
+    <rPh sb="0" eb="1">
+      <t>huo qu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi ding</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>suo shu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>jia t</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>xin xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rest/v1/family</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1785,13 +1811,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C23" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E30" sqref="E30"/>
+      <selection pane="bottomRight" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1815,8 +1841,8 @@
         <v>23</v>
       </c>
       <c r="D1" s="10">
-        <f>COUNTIF(D7:D39, "已完成")</f>
-        <v>17</v>
+        <f>COUNTIF(D7:D40, "已完成")</f>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1824,7 +1850,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="10">
-        <f>COUNTIF(D7:D39, "正在开发")</f>
+        <f>COUNTIF(D7:D40, "正在开发")</f>
         <v>0</v>
       </c>
     </row>
@@ -1833,7 +1859,7 @@
         <v>33</v>
       </c>
       <c r="D3" s="10">
-        <f>COUNTIF(D7:D39, "未测试")</f>
+        <f>COUNTIF(D7:D40, "未测试")</f>
         <v>12</v>
       </c>
     </row>
@@ -1842,7 +1868,7 @@
         <v>25</v>
       </c>
       <c r="D4" s="10">
-        <f>COUNTIF(D7:D39, "未开始")</f>
+        <f>COUNTIF(D7:D40, "未开始")</f>
         <v>2</v>
       </c>
     </row>
@@ -2085,19 +2111,19 @@
     <row r="14" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="3" t="s">
-        <v>53</v>
+        <v>126</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>114</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>83</v>
@@ -2111,11 +2137,9 @@
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>50</v>
-      </c>
+      <c r="A15" s="5"/>
       <c r="B15" s="3" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>44</v>
@@ -2124,28 +2148,28 @@
         <v>114</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>83</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>116</v>
+        <v>11</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>49</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
+      <c r="A16" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="B16" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>44</v>
@@ -2154,16 +2178,16 @@
         <v>114</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>83</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>118</v>
@@ -2175,7 +2199,7 @@
     <row r="17" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="3" t="s">
-        <v>104</v>
+        <v>46</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>44</v>
@@ -2184,26 +2208,28 @@
         <v>114</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>83</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="J17" s="3"/>
+      <c r="J17" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="18" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="3" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>44</v>
@@ -2215,25 +2241,23 @@
         <v>86</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>83</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>44</v>
@@ -2245,13 +2269,13 @@
         <v>86</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>83</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>118</v>
@@ -2261,11 +2285,9 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
-        <v>56</v>
-      </c>
+      <c r="A20" s="5"/>
       <c r="B20" s="3" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>44</v>
@@ -2274,26 +2296,30 @@
         <v>114</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>116</v>
+        <v>11</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="J20" s="3"/>
+        <v>118</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="21" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
+      <c r="A21" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="B21" s="3" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>44</v>
@@ -2302,16 +2328,16 @@
         <v>114</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>121</v>
@@ -2321,7 +2347,7 @@
     <row r="22" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>44</v>
@@ -2330,10 +2356,10 @@
         <v>114</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>83</v>
@@ -2349,7 +2375,7 @@
     <row r="23" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>44</v>
@@ -2361,13 +2387,13 @@
         <v>88</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>83</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>121</v>
@@ -2375,23 +2401,21 @@
       <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
-        <v>59</v>
-      </c>
+      <c r="A24" s="5"/>
       <c r="B24" s="3" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>83</v>
@@ -2400,20 +2424,22 @@
         <v>11</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J24" s="3"/>
     </row>
     <row r="25" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="5"/>
+      <c r="A25" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="B25" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>106</v>
@@ -2422,7 +2448,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>11</v>
@@ -2434,36 +2460,36 @@
     </row>
     <row r="26" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
-      <c r="B26" s="1" t="s">
-        <v>61</v>
+      <c r="B26" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>105</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>122</v>
+        <v>11</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J26" s="3"/>
     </row>
     <row r="27" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>44</v>
@@ -2472,10 +2498,10 @@
         <v>105</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>83</v>
@@ -2491,7 +2517,7 @@
     <row r="28" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="B28" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>44</v>
@@ -2503,13 +2529,13 @@
         <v>91</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>83</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>11</v>
+        <v>122</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>123</v>
@@ -2517,23 +2543,21 @@
       <c r="J28" s="3"/>
     </row>
     <row r="29" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>65</v>
+      <c r="A29" s="5"/>
+      <c r="B29" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>105</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>83</v>
@@ -2542,14 +2566,16 @@
         <v>11</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J29" s="3"/>
     </row>
     <row r="30" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="5"/>
+      <c r="A30" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="B30" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>13</v>
@@ -2564,7 +2590,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>11</v>
@@ -2577,10 +2603,10 @@
     <row r="31" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="B31" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>105</v>
@@ -2592,7 +2618,7 @@
         <v>12</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>11</v>
@@ -2605,10 +2631,10 @@
     <row r="32" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="3" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>105</v>
@@ -2620,7 +2646,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>11</v>
@@ -2633,35 +2659,35 @@
     <row r="33" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
       <c r="B33" s="3" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>105</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>122</v>
+        <v>11</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J33" s="3"/>
     </row>
     <row r="34" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
       <c r="B34" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>44</v>
@@ -2670,10 +2696,10 @@
         <v>105</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>83</v>
@@ -2689,7 +2715,7 @@
     <row r="35" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>44</v>
@@ -2701,13 +2727,13 @@
         <v>95</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>83</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>11</v>
+        <v>122</v>
       </c>
       <c r="I35" s="6" t="s">
         <v>123</v>
@@ -2715,35 +2741,39 @@
       <c r="J35" s="3"/>
     </row>
     <row r="36" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="5"/>
+      <c r="B36" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="J36" s="3"/>
+    </row>
+    <row r="37" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B37" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="3"/>
-    </row>
-    <row r="37" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="5"/>
-      <c r="B37" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>74</v>
@@ -2758,50 +2788,74 @@
         <v>12</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="H37" s="5"/>
-      <c r="I37" s="8"/>
+        <v>92</v>
+      </c>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
       <c r="J37" s="3"/>
     </row>
     <row r="38" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="5"/>
+      <c r="B38" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>89</v>
+      </c>
       <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
+      <c r="I38" s="8"/>
       <c r="J38" s="3"/>
     </row>
     <row r="39" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
-      <c r="B39" s="3"/>
+      <c r="B39" s="2"/>
       <c r="C39" s="4"/>
       <c r="D39" s="7"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
-      <c r="I39" s="6"/>
+      <c r="I39" s="5"/>
       <c r="J39" s="3"/>
     </row>
+    <row r="40" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="5"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="3"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A6:J37"/>
+  <autoFilter ref="A6:J38"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D38:D39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D39:D40">
       <formula1>"未开始,正在开发,已完成,已废弃"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D37">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D38">
       <formula1>"未开始,正在开发,未测试,已完成,已废弃"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C40">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F40">
       <formula1>"GET,POST,PUT,DELETE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/mx/apps/tools/family-fee/design/前后端接口设计.xlsx
+++ b/mx/apps/tools/family-fee/design/前后端接口设计.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="12240" windowHeight="16920" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22300" windowHeight="16920" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="接口设计规范" sheetId="1" r:id="rId1"/>
     <sheet name="SERVICE 接口设计" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'SERVICE 接口设计'!$A$6:$J$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'SERVICE 接口设计'!$A$6:$J$39</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="130">
   <si>
     <t>DELETE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -765,10 +765,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>startTime=long&amp;endTime=long</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/rest/v1/families/new</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -781,10 +777,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>userCode=string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/rest/v1/courses</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -805,10 +797,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>userCode=string&amp;year=int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/rest/v1/incomes/new</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -817,14 +805,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>userCode=string&amp;year=int&amp;month=int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userCode=string&amp;week=now</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/rest/v1/spendings/new</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -838,10 +818,6 @@
   </si>
   <si>
     <t>/rest/v1/accounts/registry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/rest/v1/accounts/{accountId}/logs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -896,10 +872,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>userCode=string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>修改指定家庭信息</t>
     <rPh sb="0" eb="1">
       <t>xiu g</t>
@@ -930,9 +902,6 @@
       <t>ke mu</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未测试</t>
   </si>
   <si>
     <t>/rest/v1/incomes/families/{familyId}</t>
@@ -960,23 +929,6 @@
 'country': '',
 'province':'',
 'city': ''
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-'id', '',
-'nickname': '',
-'mobile': '',
-'email':'',
-'wx': '',
-'qq':'',
-'wb':'',
-'avatarUrl': '',
-'country': '',
-'province':'',
-'city': '',
-'gender':'MALE'
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1018,33 +970,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已完成</t>
-  </si>
-  <si>
-    <t>{
-"id: "",
-"name": "",
-"desc": "",
-"avatarUrl": ""
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>无</t>
     <rPh sb="0" eb="1">
       <t>w</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"id": "",
-"code": "",
-"name": "",
-"desc": "",
-"type": "",
-"ownerId": ""
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1084,17 +1013,6 @@
   <si>
     <t>{
 "id": "",
-"desc": "",
-"courseId": "",
-"familyId": "",
-"year": 2019,
-"money": 0.0
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"id": "",
 "createdTime": 0,
 "updatedTime": 0,
 "operator": "",
@@ -1104,18 +1022,6 @@
 "desc": "",
 "family": {family},
 "course": {course}
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"id": "",
-"familyId": "",
-"courseId": "",
-"desc": "",
-"ownerId": "",
-"money": 0.0,
-"occurTime": 0
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1152,10 +1058,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>未测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>获取指定openId所属的家庭信息</t>
     <rPh sb="0" eb="1">
       <t>huo qu</t>
@@ -1180,6 +1082,172 @@
   <si>
     <t>/rest/v1/family</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取指定账户和家庭信息，使用openId</t>
+    <rPh sb="0" eb="1">
+      <t>huo q</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi ding</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhang hu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>he</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jia t</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xin xi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>shi yong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据指定的openId，获取对应的账户和家庭信息</t>
+    <rPh sb="0" eb="1">
+      <t>gen ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi ding</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>huo q</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>dui ying</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>de</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>zhang hu</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>he</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>jia t</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>xin xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"account": {account},
+"family": {family}
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userCode=openId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userCode=openId&amp;startTime=long&amp;endTime=long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userCode=openId&amp;year=int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userCode=openId&amp;year=int&amp;month=int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userCode=openId&amp;week=now</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rest/v1/summary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rest/v1/account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rest/v1/logs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+'id', '',
+'openId': '',
+'nickname': '',
+'mobile': '',
+'email':'',
+'wx': '',
+'qq':'',
+'wb':'',
+'avatarUrl': '',
+'country': '',
+'province':'',
+'city': '',
+'gender':'MALE'
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"id: "",
+"openId": "",
+"name": "",
+"desc": "",
+"avatarUrl": ""
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"id": "",
+"openId": "",
+"code": "",
+"name": "",
+"desc": "",
+"type": "",
+"ownerId": ""
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"id": "",
+"openId":"",
+"desc": "",
+"courseId": "",
+"familyId": "",
+"year": 2019,
+"money": 0.0
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"id": "",
+"openId":"",
+"familyId": "",
+"courseId": "",
+"desc": "",
+"ownerId": "",
+"money": 0.0,
+"occurTime": 0
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未测试</t>
   </si>
 </sst>
 </file>
@@ -1811,13 +1879,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C34" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J17" sqref="J17"/>
+      <selection pane="bottomRight" activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1828,7 +1896,7 @@
     <col min="4" max="4" width="12.5" style="9" customWidth="1"/>
     <col min="5" max="5" width="34.33203125" style="9" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="31.6640625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="24.33203125" style="9" customWidth="1"/>
     <col min="8" max="8" width="10.6640625" style="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="9" customWidth="1"/>
     <col min="10" max="10" width="58.1640625" style="9" customWidth="1"/>
@@ -1841,8 +1909,8 @@
         <v>23</v>
       </c>
       <c r="D1" s="10">
-        <f>COUNTIF(D7:D40, "已完成")</f>
-        <v>18</v>
+        <f>COUNTIF(D7:D41, "已完成")</f>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1850,7 +1918,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="10">
-        <f>COUNTIF(D7:D40, "正在开发")</f>
+        <f>COUNTIF(D7:D41, "正在开发")</f>
         <v>0</v>
       </c>
     </row>
@@ -1859,8 +1927,8 @@
         <v>33</v>
       </c>
       <c r="D3" s="10">
-        <f>COUNTIF(D7:D40, "未测试")</f>
-        <v>12</v>
+        <f>COUNTIF(D7:D41, "未测试")</f>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1868,7 +1936,7 @@
         <v>25</v>
       </c>
       <c r="D4" s="10">
-        <f>COUNTIF(D7:D40, "未开始")</f>
+        <f>COUNTIF(D7:D41, "未开始")</f>
         <v>2</v>
       </c>
     </row>
@@ -1915,10 +1983,10 @@
         <v>44</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>14</v>
@@ -1927,10 +1995,10 @@
         <v>11</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>34</v>
@@ -1939,288 +2007,288 @@
     <row r="8" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="3" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="J10" s="3"/>
+        <v>115</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="5"/>
+      <c r="B11" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F11" s="3" t="s">
+      <c r="D12" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="G12" s="5" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="3" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>52</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="3" t="s">
-        <v>126</v>
+        <v>55</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="J14" s="3"/>
+        <v>107</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="15" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="3" t="s">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>50</v>
-      </c>
+      <c r="A16" s="5"/>
       <c r="B16" s="3" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>116</v>
+        <v>11</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>49</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
+      <c r="A17" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="B17" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>49</v>
@@ -2229,575 +2297,581 @@
     <row r="18" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="3" t="s">
-        <v>104</v>
+        <v>46</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>11</v>
+        <v>126</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="J18" s="3"/>
+        <v>106</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="19" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="3" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>49</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>11</v>
+        <v>126</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
-        <v>56</v>
-      </c>
+      <c r="A21" s="5"/>
       <c r="B21" s="3" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>116</v>
+        <v>11</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="J21" s="3"/>
+        <v>106</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="22" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
+      <c r="A22" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="B22" s="3" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="J22" s="3"/>
     </row>
     <row r="23" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5"/>
+      <c r="B25" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G24" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="J24" s="3"/>
-    </row>
-    <row r="25" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="G25" s="5" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="J25" s="3"/>
     </row>
     <row r="26" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="5"/>
+      <c r="A26" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="B26" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="J26" s="3"/>
     </row>
     <row r="27" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
-      <c r="B27" s="1" t="s">
-        <v>61</v>
+      <c r="B27" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>122</v>
+        <v>11</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="J27" s="3"/>
     </row>
     <row r="28" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="B28" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="J28" s="3"/>
     </row>
     <row r="29" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
       <c r="B29" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F29" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="5"/>
+      <c r="B30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G29" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="J29" s="3"/>
-    </row>
-    <row r="30" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="G30" s="5" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="J30" s="3"/>
     </row>
     <row r="31" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="5"/>
+      <c r="A31" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="B31" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="J31" s="3"/>
     </row>
     <row r="32" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="J32" s="3"/>
     </row>
     <row r="33" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
       <c r="B33" s="3" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="J33" s="3"/>
     </row>
     <row r="34" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
       <c r="B34" s="3" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>122</v>
+        <v>11</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="J34" s="3"/>
     </row>
     <row r="35" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="J35" s="3"/>
     </row>
     <row r="36" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5"/>
       <c r="B36" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F36" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="J36" s="3"/>
+    </row>
+    <row r="37" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="5"/>
+      <c r="B37" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F37" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G36" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="H36" s="6" t="s">
+      <c r="G37" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="H37" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I36" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="J36" s="3"/>
-    </row>
-    <row r="37" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
+      <c r="I37" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="J37" s="3"/>
+    </row>
+    <row r="38" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B38" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="3"/>
-    </row>
-    <row r="38" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="5"/>
-      <c r="B38" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>74</v>
@@ -2806,56 +2880,80 @@
         <v>43</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="H38" s="5"/>
-      <c r="I38" s="8"/>
+        <v>119</v>
+      </c>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
       <c r="J38" s="3"/>
     </row>
     <row r="39" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="5"/>
+      <c r="B39" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>118</v>
+      </c>
       <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
+      <c r="I39" s="8"/>
       <c r="J39" s="3"/>
     </row>
     <row r="40" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5"/>
-      <c r="B40" s="3"/>
+      <c r="B40" s="2"/>
       <c r="C40" s="4"/>
       <c r="D40" s="7"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
-      <c r="I40" s="6"/>
+      <c r="I40" s="5"/>
       <c r="J40" s="3"/>
     </row>
+    <row r="41" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="5"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="3"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A6:J38"/>
+  <autoFilter ref="A6:J39"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D39:D40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D40:D41">
       <formula1>"未开始,正在开发,已完成,已废弃"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D38">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D39">
       <formula1>"未开始,正在开发,未测试,已完成,已废弃"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C41">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F41">
       <formula1>"GET,POST,PUT,DELETE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/mx/apps/tools/family-fee/design/前后端接口设计.xlsx
+++ b/mx/apps/tools/family-fee/design/前后端接口设计.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22300" windowHeight="16920" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25980" windowHeight="16920" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="接口设计规范" sheetId="1" r:id="rId1"/>
     <sheet name="SERVICE 接口设计" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'SERVICE 接口设计'!$A$6:$J$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'SERVICE 接口设计'!$A$6:$J$40</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="133">
   <si>
     <t>DELETE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -387,19 +387,6 @@
     </rPh>
     <rPh sb="4" eb="5">
       <t>ke m</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要使用缓存</t>
-    <rPh sb="0" eb="1">
-      <t>xu y</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>shi yong</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>huan c</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1248,6 +1235,46 @@
   </si>
   <si>
     <t>未测试</t>
+  </si>
+  <si>
+    <t>获取指定家庭的所有科目</t>
+    <rPh sb="0" eb="1">
+      <t>huo q</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi ding</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jia t</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>suo you</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ke mu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rest/v1/courses/families/{familyId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userCode=openId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"id": "",
+"code": "",
+"name": "",
+"desc": "",
+"type": ""
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1879,13 +1906,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C34" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C13" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E40" sqref="E40"/>
+      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1909,7 +1936,7 @@
         <v>23</v>
       </c>
       <c r="D1" s="10">
-        <f>COUNTIF(D7:D41, "已完成")</f>
+        <f>COUNTIF(D7:D42, "已完成")</f>
         <v>0</v>
       </c>
     </row>
@@ -1918,7 +1945,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="10">
-        <f>COUNTIF(D7:D41, "正在开发")</f>
+        <f>COUNTIF(D7:D42, "正在开发")</f>
         <v>0</v>
       </c>
     </row>
@@ -1927,8 +1954,8 @@
         <v>33</v>
       </c>
       <c r="D3" s="10">
-        <f>COUNTIF(D7:D41, "未测试")</f>
-        <v>31</v>
+        <f>COUNTIF(D7:D42, "未测试")</f>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1936,7 +1963,7 @@
         <v>25</v>
       </c>
       <c r="D4" s="10">
-        <f>COUNTIF(D7:D41, "未开始")</f>
+        <f>COUNTIF(D7:D42, "未开始")</f>
         <v>2</v>
       </c>
     </row>
@@ -1983,10 +2010,10 @@
         <v>44</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>14</v>
@@ -1995,10 +2022,10 @@
         <v>11</v>
       </c>
       <c r="H7" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>102</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>103</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>34</v>
@@ -2007,16 +2034,16 @@
     <row r="8" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>26</v>
@@ -2025,114 +2052,114 @@
         <v>11</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>14</v>
@@ -2141,26 +2168,26 @@
         <v>11</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>26</v>
@@ -2169,84 +2196,84 @@
         <v>11</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>26</v>
@@ -2258,13 +2285,13 @@
         <v>11</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>45</v>
@@ -2273,200 +2300,192 @@
         <v>44</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H17" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="I17" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="I17" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="3" t="s">
-        <v>46</v>
+        <v>129</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>83</v>
+        <v>130</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G18" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="H18" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="6" t="s">
-        <v>126</v>
-      </c>
       <c r="I18" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>49</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="3" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>116</v>
+        <v>11</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="3" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G20" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H20" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="6" t="s">
-        <v>126</v>
-      </c>
       <c r="I20" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>49</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>116</v>
+        <v>11</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>49</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="J21" s="3"/>
     </row>
     <row r="22" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
-        <v>56</v>
-      </c>
+      <c r="A22" s="5"/>
       <c r="B22" s="3" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="I22" s="6" t="s">
-        <v>108</v>
-      </c>
       <c r="J22" s="3"/>
     </row>
     <row r="23" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="5"/>
+      <c r="A23" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="B23" s="3" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J23" s="3"/>
     </row>
@@ -2479,22 +2498,22 @@
         <v>44</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>11</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J24" s="3"/>
     </row>
@@ -2507,105 +2526,105 @@
         <v>44</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5"/>
+      <c r="B26" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G25" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="J25" s="3"/>
-    </row>
-    <row r="26" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="G26" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J26" s="3"/>
     </row>
     <row r="27" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="5"/>
+      <c r="A27" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="B27" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J27" s="3"/>
     </row>
     <row r="28" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
-      <c r="B28" s="1" t="s">
-        <v>61</v>
+      <c r="B28" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G28" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="H28" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>128</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>109</v>
@@ -2615,195 +2634,195 @@
     <row r="29" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
       <c r="B29" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>11</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J29" s="3"/>
     </row>
     <row r="30" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
       <c r="B30" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F30" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="5"/>
+      <c r="B31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G30" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="J30" s="3"/>
-    </row>
-    <row r="31" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="G31" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J31" s="3"/>
     </row>
     <row r="32" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="5"/>
+      <c r="A32" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="B32" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J32" s="3"/>
     </row>
     <row r="33" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
       <c r="B33" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J33" s="3"/>
     </row>
     <row r="34" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
       <c r="B34" s="3" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J34" s="3"/>
     </row>
     <row r="35" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="3" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G35" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H35" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>128</v>
       </c>
       <c r="I35" s="6" t="s">
         <v>109</v>
@@ -2813,98 +2832,102 @@
     <row r="36" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5"/>
       <c r="B36" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>11</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J36" s="3"/>
     </row>
     <row r="37" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5"/>
       <c r="B37" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F37" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="J37" s="3"/>
+    </row>
+    <row r="38" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="5"/>
+      <c r="B38" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F38" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G37" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="H37" s="6" t="s">
+      <c r="G38" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H38" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I37" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="J37" s="3"/>
-    </row>
-    <row r="38" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="5" t="s">
+      <c r="I38" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="J38" s="3"/>
+    </row>
+    <row r="39" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="3"/>
-    </row>
-    <row r="39" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="5"/>
-      <c r="B39" s="3" t="s">
+      <c r="C39" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>43</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>12</v>
@@ -2912,48 +2935,72 @@
       <c r="G39" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="H39" s="5"/>
-      <c r="I39" s="8"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
       <c r="J39" s="3"/>
     </row>
     <row r="40" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="5"/>
+      <c r="B40" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>117</v>
+      </c>
       <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
+      <c r="I40" s="8"/>
       <c r="J40" s="3"/>
     </row>
     <row r="41" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
-      <c r="B41" s="3"/>
+      <c r="B41" s="2"/>
       <c r="C41" s="4"/>
       <c r="D41" s="7"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
-      <c r="I41" s="6"/>
+      <c r="I41" s="5"/>
       <c r="J41" s="3"/>
     </row>
+    <row r="42" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="5"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="3"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A6:J39"/>
+  <autoFilter ref="A6:J40"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D40:D41">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D41:D42">
       <formula1>"未开始,正在开发,已完成,已废弃"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D40">
       <formula1>"未开始,正在开发,未测试,已完成,已废弃"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C41">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C42">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F41">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F42">
       <formula1>"GET,POST,PUT,DELETE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/mx/apps/tools/family-fee/design/前后端接口设计.xlsx
+++ b/mx/apps/tools/family-fee/design/前后端接口设计.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25980" windowHeight="16920" activeTab="1"/>
+    <workbookView xWindow="7200" yWindow="2380" windowWidth="20400" windowHeight="16920" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="接口设计规范" sheetId="1" r:id="rId1"/>
     <sheet name="SERVICE 接口设计" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'SERVICE 接口设计'!$A$6:$J$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'SERVICE 接口设计'!$A$6:$J$45</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="148">
   <si>
     <t>DELETE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1274,6 +1274,234 @@
 "desc": "",
 "type": ""
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改家庭头像</t>
+    <rPh sb="0" eb="1">
+      <t>xiu g</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jia t</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>tou x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取家庭头像</t>
+    <rPh sb="0" eb="1">
+      <t>huo q</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jia t</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>tou x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取家庭二维码</t>
+    <rPh sb="0" eb="1">
+      <t>huo q</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jia t</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>er wei ma</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rest/v1/families/{familyId}/avatar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rest/v1/families/{familyId}/qrcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>File</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传一个图片文件作为家庭头像，并返回头像的URL供后续保存</t>
+    <rPh sb="0" eb="1">
+      <t>shang ch</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yi ge</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>tu p</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wen j</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zuo wei</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>jia t</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>tou x</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>bing</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>fan hui</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>tou x</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>de</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>gong</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>hou xu</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>bao cun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取家庭头像，以流式返回文件</t>
+    <rPh sb="0" eb="1">
+      <t>huo q</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jia t</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>tou x</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>fan hui</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>wen j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取家庭二维码，以流式返回文件</t>
+    <rPh sb="0" eb="1">
+      <t>huo q</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jia t</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>er wei ma</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>liu shi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>fan hui</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>wen j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改账户头像</t>
+    <rPh sb="0" eb="1">
+      <t>xiu g</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhang hu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>tou x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取账户头像</t>
+    <rPh sb="0" eb="1">
+      <t>huo q</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhang hu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>tou x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rest/v1/accounts/{accountId}/avatar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传一张图片作为账户投入，并返回URL供后续操作</t>
+    <rPh sb="0" eb="1">
+      <t>shang c</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yi zh</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>tu p</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zuo wei</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhang hu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>tou r</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>bing</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>fan h</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>gong hou xu</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>cao z</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以流式返回文件</t>
+    <rPh sb="0" eb="1">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>liu shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fan hui</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wen j</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1906,13 +2134,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C13" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1936,7 +2164,7 @@
         <v>23</v>
       </c>
       <c r="D1" s="10">
-        <f>COUNTIF(D7:D42, "已完成")</f>
+        <f>COUNTIF(D7:D47, "已完成")</f>
         <v>0</v>
       </c>
     </row>
@@ -1945,7 +2173,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="10">
-        <f>COUNTIF(D7:D42, "正在开发")</f>
+        <f>COUNTIF(D7:D47, "正在开发")</f>
         <v>0</v>
       </c>
     </row>
@@ -1954,8 +2182,8 @@
         <v>33</v>
       </c>
       <c r="D3" s="10">
-        <f>COUNTIF(D7:D42, "未测试")</f>
-        <v>32</v>
+        <f>COUNTIF(D7:D47, "未测试")</f>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1963,7 +2191,7 @@
         <v>25</v>
       </c>
       <c r="D4" s="10">
-        <f>COUNTIF(D7:D42, "未开始")</f>
+        <f>COUNTIF(D7:D47, "未开始")</f>
         <v>2</v>
       </c>
     </row>
@@ -2146,97 +2374,99 @@
       <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>50</v>
-      </c>
+      <c r="A12" s="5"/>
       <c r="B12" s="3" t="s">
-        <v>53</v>
+        <v>143</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>128</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>11</v>
+        <v>115</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="J12" s="3"/>
+        <v>139</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="3" t="s">
-        <v>95</v>
+        <v>144</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>128</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G13" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="I13" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>11</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="3" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>13</v>
@@ -2245,16 +2475,16 @@
         <v>128</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>11</v>
+        <v>124</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>106</v>
@@ -2264,22 +2494,22 @@
     <row r="16" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>128</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>11</v>
+        <v>115</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>11</v>
@@ -2287,23 +2517,23 @@
       <c r="I16" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="J16" s="3"/>
+      <c r="J16" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="17" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>49</v>
-      </c>
+      <c r="A17" s="5"/>
       <c r="B17" s="3" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>128</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>12</v>
@@ -2312,17 +2542,17 @@
         <v>115</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="3" t="s">
-        <v>129</v>
+        <v>52</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>44</v>
@@ -2331,26 +2561,26 @@
         <v>128</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>131</v>
+        <v>11</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="3" t="s">
-        <v>46</v>
+        <v>133</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>44</v>
@@ -2359,26 +2589,28 @@
         <v>128</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>82</v>
+        <v>136</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>11</v>
+        <v>115</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="J19" s="3"/>
+        <v>139</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="20" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="3" t="s">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>44</v>
@@ -2387,7 +2619,7 @@
         <v>128</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>83</v>
+        <v>136</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>12</v>
@@ -2399,14 +2631,16 @@
         <v>11</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="J20" s="3"/>
+        <v>138</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="21" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="3" t="s">
-        <v>47</v>
+        <v>135</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>44</v>
@@ -2415,26 +2649,30 @@
         <v>128</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>83</v>
+        <v>137</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G21" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H21" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H21" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="I21" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="J21" s="3"/>
+        <v>138</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="22" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
+      <c r="A22" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="B22" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>44</v>
@@ -2443,16 +2681,16 @@
         <v>128</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>115</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>105</v>
@@ -2460,11 +2698,9 @@
       <c r="J22" s="3"/>
     </row>
     <row r="23" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
-        <v>55</v>
-      </c>
+      <c r="A23" s="5"/>
       <c r="B23" s="3" t="s">
-        <v>56</v>
+        <v>129</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>44</v>
@@ -2473,26 +2709,26 @@
         <v>128</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="3" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>44</v>
@@ -2501,7 +2737,7 @@
         <v>128</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>14</v>
@@ -2510,17 +2746,17 @@
         <v>11</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J24" s="3"/>
     </row>
     <row r="25" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
       <c r="B25" s="3" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>44</v>
@@ -2529,26 +2765,26 @@
         <v>128</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G25" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H25" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H25" s="6" t="s">
-        <v>126</v>
-      </c>
       <c r="I25" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J25" s="3"/>
     </row>
     <row r="26" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" s="3" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>44</v>
@@ -2557,40 +2793,38 @@
         <v>128</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5"/>
+      <c r="B27" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="J26" s="3"/>
-    </row>
-    <row r="27" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>115</v>
@@ -2599,23 +2833,25 @@
         <v>11</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="J27" s="3"/>
     </row>
     <row r="28" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="5"/>
+      <c r="A28" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="B28" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>128</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>12</v>
@@ -2624,17 +2860,17 @@
         <v>117</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J28" s="3"/>
     </row>
     <row r="29" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
-      <c r="B29" s="1" t="s">
-        <v>60</v>
+      <c r="B29" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>44</v>
@@ -2643,7 +2879,7 @@
         <v>128</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>14</v>
@@ -2652,17 +2888,17 @@
         <v>11</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J29" s="3"/>
     </row>
     <row r="30" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
-      <c r="B30" s="1" t="s">
-        <v>61</v>
+      <c r="B30" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>44</v>
@@ -2671,7 +2907,7 @@
         <v>128</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>26</v>
@@ -2680,17 +2916,17 @@
         <v>11</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J30" s="3"/>
     </row>
     <row r="31" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
-      <c r="B31" s="1" t="s">
-        <v>62</v>
+      <c r="B31" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>44</v>
@@ -2699,7 +2935,7 @@
         <v>128</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>32</v>
@@ -2711,16 +2947,16 @@
         <v>11</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J31" s="3"/>
     </row>
     <row r="32" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>13</v>
@@ -2729,7 +2965,7 @@
         <v>128</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>12</v>
@@ -2748,7 +2984,7 @@
     <row r="33" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
       <c r="B33" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>13</v>
@@ -2757,7 +2993,7 @@
         <v>128</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>12</v>
@@ -2775,8 +3011,8 @@
     </row>
     <row r="34" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
-      <c r="B34" s="3" t="s">
-        <v>66</v>
+      <c r="B34" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>44</v>
@@ -2785,54 +3021,54 @@
         <v>128</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>11</v>
+        <v>127</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J34" s="3"/>
     </row>
     <row r="35" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
-      <c r="B35" s="3" t="s">
-        <v>77</v>
+      <c r="B35" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>128</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>119</v>
+        <v>11</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>11</v>
+        <v>127</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J35" s="3"/>
     </row>
     <row r="36" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5"/>
-      <c r="B36" s="3" t="s">
-        <v>67</v>
+      <c r="B36" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>44</v>
@@ -2841,16 +3077,16 @@
         <v>128</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="G36" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H36" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>127</v>
       </c>
       <c r="I36" s="6" t="s">
         <v>108</v>
@@ -2858,76 +3094,76 @@
       <c r="J36" s="3"/>
     </row>
     <row r="37" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="5"/>
+      <c r="A37" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="B37" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>128</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G37" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H37" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H37" s="6" t="s">
-        <v>127</v>
-      </c>
       <c r="I37" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J37" s="3"/>
     </row>
     <row r="38" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
       <c r="B38" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>128</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J38" s="3"/>
     </row>
     <row r="39" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="5" t="s">
-        <v>70</v>
-      </c>
+      <c r="A39" s="5"/>
       <c r="B39" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>43</v>
+        <v>128</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>12</v>
@@ -2935,72 +3171,214 @@
       <c r="G39" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
+      <c r="H39" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>109</v>
+      </c>
       <c r="J39" s="3"/>
     </row>
     <row r="40" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5"/>
       <c r="B40" s="3" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>43</v>
+        <v>128</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="H40" s="5"/>
-      <c r="I40" s="8"/>
+        <v>119</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>109</v>
+      </c>
       <c r="J40" s="3"/>
     </row>
     <row r="41" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
+      <c r="B41" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>108</v>
+      </c>
       <c r="J41" s="3"/>
     </row>
     <row r="42" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="6"/>
+      <c r="B42" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>108</v>
+      </c>
       <c r="J42" s="3"/>
     </row>
+    <row r="43" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="5"/>
+      <c r="B43" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="J43" s="3"/>
+    </row>
+    <row r="44" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="3"/>
+    </row>
+    <row r="45" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="5"/>
+      <c r="B45" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="H45" s="5"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="3"/>
+    </row>
+    <row r="46" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="5"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="3"/>
+    </row>
+    <row r="47" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="5"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="3"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A6:J40"/>
+  <autoFilter ref="A6:J45"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D41:D42">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D46:D47">
       <formula1>"未开始,正在开发,已完成,已废弃"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D45">
       <formula1>"未开始,正在开发,未测试,已完成,已废弃"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C42">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C47">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F42">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F47">
       <formula1>"GET,POST,PUT,DELETE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/mx/apps/tools/family-fee/design/前后端接口设计.xlsx
+++ b/mx/apps/tools/family-fee/design/前后端接口设计.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="2380" windowWidth="20400" windowHeight="16920" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="12780" windowHeight="16920" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="接口设计规范" sheetId="1" r:id="rId1"/>
     <sheet name="SERVICE 接口设计" sheetId="2" r:id="rId2"/>
+    <sheet name="GraphQL接口设计" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'SERVICE 接口设计'!$A$6:$J$45</definedName>
@@ -31,57 +32,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="200">
   <si>
     <t>DELETE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>GET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>应用场景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>RestFul请求方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>获取数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>删除操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>示例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>提交数据，如插入操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>修改数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>PUT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>无</t>
     <rPh sb="0" eb="1">
       <t>wu</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>GET</t>
@@ -118,15 +119,15 @@
   </si>
   <si>
     <t>已完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>正在开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>未开始</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>PUT</t>
@@ -138,7 +139,7 @@
   "Object": "data" ,
   "Object": "pagination" 
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">rerrorCode为返回结果：成功为0、失败为非0；errorMessage为出错信息，‘data为数据，此处为object，后边世界接口设计过程返回只需要描述data部分
@@ -152,25 +153,25 @@
     <rPh sb="24" eb="25">
       <t>fei ling</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>请求方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>模块</t>
     <rPh sb="0" eb="1">
       <t>mo k</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>系统</t>
     <rPh sb="0" eb="1">
       <t>xi t</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>DELETE</t>
@@ -183,7 +184,7 @@
     <rPh sb="1" eb="2">
       <t>ce shi</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>使用用户名/口令登入系统</t>
@@ -202,43 +203,43 @@
     <rPh sb="10" eb="11">
       <t>xi t</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>@Path("stores")
 @GET
 Public Response getStore(@QueryParam (“uuid”) String uuid){}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>@Path("stores/{uuid}")
 @DELETE
 Public Response deleteStore(@PathParam(“uuid”) String uuid){}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>@Path("stores/{uuid}")
 @PUT
 Public Response updateStore(@PathParam(“uuid”) String uuid,StoreInfoFormVO vo){}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>@Path("stores/new")
 @POST
 Public Response createStore(StoreInfoFormVO vo){}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Restful请求
 返回规范</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>注意：</t>
     <rPh sb="0" eb="1">
       <t>zhu yi</t>
     </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>除登录请求外，所有的RESTful请求必须在HTTP请求头中加入“token”或“Authorization”，其值为登录成功后本地缓存的token。</t>
@@ -311,7 +312,7 @@
     <rPh sb="68" eb="69">
       <t>de</t>
     </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>注册并登入系统</t>
@@ -327,7 +328,7 @@
     <rPh sb="5" eb="6">
       <t>xi t</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>未开始</t>
@@ -346,7 +347,7 @@
     <rPh sb="4" eb="5">
       <t>ke mu</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>添加一个新科目</t>
@@ -362,7 +363,7 @@
     <rPh sb="5" eb="6">
       <t>ke mu</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>修改指定科目</t>
@@ -375,7 +376,7 @@
     <rPh sb="4" eb="5">
       <t>ke m</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>删除指定科目</t>
@@ -388,21 +389,21 @@
     <rPh sb="4" eb="5">
       <t>ke m</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>科目</t>
     <rPh sb="0" eb="1">
       <t>ke mu</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>家庭</t>
     <rPh sb="0" eb="1">
       <t>jia t</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>家庭二维码，便于加入家庭</t>
@@ -421,7 +422,7 @@
     <rPh sb="10" eb="11">
       <t>jia t</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>加入指定家庭</t>
@@ -434,7 +435,7 @@
     <rPh sb="4" eb="5">
       <t>jia t</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>创建新家庭</t>
@@ -447,7 +448,7 @@
     <rPh sb="3" eb="4">
       <t>jia ting</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>获取指定家庭信息</t>
@@ -463,14 +464,14 @@
     <rPh sb="6" eb="7">
       <t>xin xi</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>预算</t>
     <rPh sb="0" eb="1">
       <t>yu suan</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>获取年度预算</t>
@@ -483,7 +484,7 @@
     <rPh sb="4" eb="5">
       <t>yu suan</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>获取所有收入</t>
@@ -496,14 +497,14 @@
     <rPh sb="4" eb="5">
       <t>shou ru</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>收入</t>
     <rPh sb="0" eb="1">
       <t>shou ru</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>获取指定年度收入</t>
@@ -519,7 +520,7 @@
     <rPh sb="6" eb="7">
       <t>shou r</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>记录一笔新收入</t>
@@ -535,7 +536,7 @@
     <rPh sb="5" eb="6">
       <t>shou ru</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>修改指定收入</t>
@@ -548,7 +549,7 @@
     <rPh sb="4" eb="5">
       <t>shou ru</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>删除指定收入</t>
@@ -561,14 +562,14 @@
     <rPh sb="4" eb="5">
       <t>shou r</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>支出</t>
     <rPh sb="0" eb="1">
       <t>zhi chu</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>获取所有支出</t>
@@ -581,7 +582,7 @@
     <rPh sb="4" eb="5">
       <t>zhi chu</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>获取指定年度支出</t>
@@ -597,7 +598,7 @@
     <rPh sb="6" eb="7">
       <t>zhi chu</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>获取指定月份支出</t>
@@ -613,7 +614,7 @@
     <rPh sb="6" eb="7">
       <t>zhi chu</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>记录一笔新支出</t>
@@ -629,7 +630,7 @@
     <rPh sb="5" eb="6">
       <t>zhi chu</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>修改指定支出</t>
@@ -642,7 +643,7 @@
     <rPh sb="4" eb="5">
       <t>zhi chu</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>删除指定支出</t>
@@ -655,14 +656,14 @@
     <rPh sb="4" eb="5">
       <t>zhi chu</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>统计</t>
     <rPh sb="0" eb="1">
       <t>tong ji</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>月度账单</t>
@@ -672,7 +673,7 @@
     <rPh sb="2" eb="3">
       <t>zhang dan</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>年度账单</t>
@@ -682,7 +683,7 @@
     <rPh sb="2" eb="3">
       <t>zhang dan</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>低</t>
@@ -701,7 +702,7 @@
     <rPh sb="6" eb="7">
       <t>xiang</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>修改指定预算项</t>
@@ -717,7 +718,7 @@
     <rPh sb="6" eb="7">
       <t>xiang</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>添加一个新预算项</t>
@@ -736,7 +737,7 @@
     <rPh sb="7" eb="8">
       <t>xiang</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>获取本周支出</t>
@@ -749,63 +750,63 @@
     <rPh sb="4" eb="5">
       <t>zhi chu</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>/rest/v1/families/new</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>/rest/v1/families/{familyId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>/rest/v1/families/{familyId}/join</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>/rest/v1/courses</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>/rest/v1/courses/new</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>/rest/v1/courses/{courseId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>/rest/v1/budgets/new</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>/rest/v1/budgets/{budgetId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>/rest/v1/incomes/new</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>/rest/v1/incomes/{incomeId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>/rest/v1/spendings/new</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>/rest/v1/spendings/{spendingId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>/rest/v1/accounts/{accountId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>/rest/v1/accounts/registry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>查看指定账户的访问历史</t>
@@ -827,7 +828,7 @@
     <rPh sb="9" eb="10">
       <t>li shi</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>获取指定账户信息</t>
@@ -843,7 +844,7 @@
     <rPh sb="6" eb="7">
       <t>xin xi</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>修改账户信息</t>
@@ -856,7 +857,7 @@
     <rPh sb="4" eb="5">
       <t>xin xi</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>修改指定家庭信息</t>
@@ -872,7 +873,7 @@
     <rPh sb="6" eb="7">
       <t>xin xi</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>获取指定的科目</t>
@@ -888,23 +889,23 @@
     <rPh sb="5" eb="6">
       <t>ke mu</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>/rest/v1/incomes/families/{familyId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>/rest/v1/spendings/families/{familyId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>/rest/v1/bills/families/{familyId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>/rest/v1/budgets/families/{familyId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -917,7 +918,7 @@
 'province':'',
 'city': ''
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -940,7 +941,7 @@
 'province':'',
 'city':''
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>[{
@@ -954,14 +955,14 @@
 'latitude':0.0,
 'longitude': 0.0
 }]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>无</t>
     <rPh sb="0" eb="1">
       <t>w</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -976,7 +977,7 @@
 "type": "",
 "owner": {account}
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -995,7 +996,7 @@
 "isOwner": true
 }]
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -1010,7 +1011,7 @@
 "family": {family},
 "course": {course}
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -1026,7 +1027,7 @@
 "course": {course},
 "owner": {account}
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>[{
@@ -1042,7 +1043,7 @@
 "course": {course},
 "owner": {account}
 }]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>获取指定openId所属的家庭信息</t>
@@ -1064,11 +1065,11 @@
     <rPh sb="15" eb="16">
       <t>xin xi</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>/rest/v1/family</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>获取指定账户和家庭信息，使用openId</t>
@@ -1093,7 +1094,7 @@
     <rPh sb="12" eb="13">
       <t>shi yong</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>根据指定的openId，获取对应的账户和家庭信息</t>
@@ -1127,46 +1128,46 @@
     <rPh sb="22" eb="23">
       <t>xin xi</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{
 "account": {account},
 "family": {family}
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>userCode=openId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>userCode=openId&amp;startTime=long&amp;endTime=long</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>userCode=openId&amp;year=int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>userCode=openId&amp;year=int&amp;month=int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>userCode=openId&amp;week=now</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>/rest/v1/summary</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>/rest/v1/account</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>/rest/v1/logs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -1184,7 +1185,7 @@
 'city': '',
 'gender':'MALE'
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -1194,7 +1195,7 @@
 "desc": "",
 "avatarUrl": ""
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -1206,7 +1207,7 @@
 "type": "",
 "ownerId": ""
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -1218,7 +1219,7 @@
 "year": 2019,
 "money": 0.0
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -1231,7 +1232,7 @@
 "money": 0.0,
 "occurTime": 0
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>未测试</t>
@@ -1256,15 +1257,15 @@
     <rPh sb="9" eb="10">
       <t>ke mu</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>/rest/v1/courses/families/{familyId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>userCode=openId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -1274,7 +1275,7 @@
 "desc": "",
 "type": ""
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>修改家庭头像</t>
@@ -1287,7 +1288,7 @@
     <rPh sb="4" eb="5">
       <t>tou x</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>获取家庭头像</t>
@@ -1300,7 +1301,7 @@
     <rPh sb="4" eb="5">
       <t>tou x</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>获取家庭二维码</t>
@@ -1313,23 +1314,23 @@
     <rPh sb="4" eb="5">
       <t>er wei ma</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>/rest/v1/families/{familyId}/avatar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>/rest/v1/families/{familyId}/qrcode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>File</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>上传一个图片文件作为家庭头像，并返回头像的URL供后续保存</t>
@@ -1375,7 +1376,7 @@
     <rPh sb="27" eb="28">
       <t>bao cun</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>获取家庭头像，以流式返回文件</t>
@@ -1397,7 +1398,7 @@
     <rPh sb="12" eb="13">
       <t>wen j</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>获取家庭二维码，以流式返回文件</t>
@@ -1422,7 +1423,7 @@
     <rPh sb="13" eb="14">
       <t>wen j</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>修改账户头像</t>
@@ -1435,7 +1436,7 @@
     <rPh sb="4" eb="5">
       <t>tou x</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>获取账户头像</t>
@@ -1448,11 +1449,11 @@
     <rPh sb="4" eb="5">
       <t>tou x</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>/rest/v1/accounts/{accountId}/avatar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>上传一张图片作为账户投入，并返回URL供后续操作</t>
@@ -1486,7 +1487,7 @@
     <rPh sb="22" eb="23">
       <t>cao z</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>以流式返回文件</t>
@@ -1502,19 +1503,559 @@
     <rPh sb="5" eb="6">
       <t>wen j</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Method</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://ip:port/rest/v1/graph</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST数据</t>
+    <rPh sb="4" eb="5">
+      <t>shu ju</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <rPh sb="0" eb="1">
+      <t>bei zhu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据openId或者账户信息</t>
+    <rPh sb="0" eb="1">
+      <t>gen ju</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>huo zh</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zhang h</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>xin xi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据id获取账户信息</t>
+    <rPh sb="0" eb="1">
+      <t>gen ju</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>huo q</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhang hu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xin xi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据accountId获取相关日志列表</t>
+    <rPh sb="0" eb="1">
+      <t>gen ju</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>huo q</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>xiang g</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ri zh</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>lie b</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取家庭年度预算</t>
+    <rPh sb="0" eb="1">
+      <t>huo qu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jia t</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>nian du</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yu suan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取家庭所有科目</t>
+    <rPh sb="0" eb="1">
+      <t>huo q</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jia ting</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>suo you</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ke m</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据id获取科目信息</t>
+    <rPh sb="0" eb="1">
+      <t>gen ju</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>huo q</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ke mu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xin xi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>家庭</t>
+    <rPh sb="0" eb="1">
+      <t>jia ting</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据id获取家庭信息</t>
+    <rPh sb="0" eb="1">
+      <t>gen ju</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>huo q</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jia t</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xin xi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据familyId获取上周支出明细</t>
+    <rPh sb="0" eb="1">
+      <t>gen ju</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>huo q</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>shang zhou</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>zhi chu</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ming xi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据familyId获取本周支出明细</t>
+    <rPh sb="0" eb="1">
+      <t>gen ju</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>huo q</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ben zhou</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>zhi chu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据familyId获取年度/月份支出明细</t>
+    <rPh sb="0" eb="1">
+      <t>gen ju</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>huo q</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>nian du</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>yue fen</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>zhi chu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据accountId获取上周支出明细</t>
+    <rPh sb="0" eb="1">
+      <t>gen ju</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>huo q</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>shang zhou</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>zhi chu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据familyId获取年度支出明细</t>
+    <rPh sb="0" eb="1">
+      <t>gen ju</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>huo q</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>nain du</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>zhi chu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据accountId获取本周支出明细</t>
+    <rPh sb="0" eb="1">
+      <t>gen ju</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>huo q</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ben zhou</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>zhi chu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据accountId获取年度/月份支出明细</t>
+    <rPh sb="0" eb="1">
+      <t>gen ju</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>huo q</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>nian du</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>yue fen</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>zhi chu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据accountId获取年度支出明细</t>
+    <rPh sb="0" eb="1">
+      <t>gen ju</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>huo q</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>nain du</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>zhi chu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据familyId获取年度/月份收入明细</t>
+    <rPh sb="0" eb="1">
+      <t>gen ju</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>huo q</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>nian du</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>yue fen</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>shou r</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据familyId获取年度收入明细</t>
+    <rPh sb="0" eb="1">
+      <t>gen j</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>huo q</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>nian du</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>shou r</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据accountId获取年度/月份收入明细</t>
+    <rPh sb="0" eb="1">
+      <t>gen ju</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>huo q</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>nian du</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>yue fen</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>shou r</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据accountId获取年度收入明细</t>
+    <rPh sb="0" eb="1">
+      <t>gen ju</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>huo q</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>nian du</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>shou ru</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据familyId获取收入和支出总览情况</t>
+    <rPh sb="0" eb="1">
+      <t>gen ju</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>huo q</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>shou ru</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>he</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>zhi chu</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>zong lan</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>qing k</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据accountId获取收入和支出总览情况</t>
+    <rPh sb="0" eb="1">
+      <t>gen ju</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>huo q</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>shou ru</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>he</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>zhi ch</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>zong lan</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>qing k</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>query{family(id:''){id name avatarUrl desc members[{id role ffeeAccount{id openId nickname avatarUrl mobile} isOwner}]}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>query{account(input: {id: ''}){id openId nickname mobile gender avatarUrl city}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>query{account(input: {openId: ''}){id openId nickname mobile gender avatarUrl city}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>query{budgetList(input:{familyId: '', year=2018}){id year money desc course{id code name order isPublic} family{id name avatarUrl}}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>query{courseList(input: {familyId: ''}){id type code name desc order isPublic}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>query{course(input:{id: ''}){id type code name desc order isPublic}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>input: AccountQueryInput</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>input: CourseQueryInput，如果family.isBlank则返回公共科目</t>
+    <rPh sb="24" eb="25">
+      <t>ru g</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ze</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>fan h</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>gong g</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ke mu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>input: FamilyMoneyQueryInput，如果year&lt;=0则取当年</t>
+    <rPh sb="29" eb="30">
+      <t>ru g</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ze</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>qu</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>dang n</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>query{accessLogList(input:{accountId: '',familyId: ''}){id conent latitude longitude account{id openId nickname mobile gender avatarUrl}}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>query{accountIncomeList(input:{accountId: '', year=2018}){id money occurTime desc course{id code name type} family{id name avatarUrl}}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>query{accountIncomeList(input:{accountId: '', year=2019, month=10}){id money occurTime desc course{id code name type} family{id name avatarUrl}}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>query{familyIncomeList(input:{familyId: '', year=2018}){id money occurTime desc course{id code name type} family{id name avatarUrl} owner{id openId nickname avatarUrl}}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>query{familyIncomeList(input: {familyId: '', year=2019, month=10}){id money occurTime desc course{id code name type} family{id name avatarUrl} owner{id openId nickname avatarUrl}}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>query{accountSpendingList(input: {accountId: '', year=2018}){id money occurTime desc course{id code name type} family{id name avatarUrl}}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>query{accountSpendingList(input: {accountId: '', year=2018, month=10}){id money occurTime desc course{id code name type} family{id name avatarUrl}}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>query{accountSpendingList(input: {accountId: '', week=0}){id money occurTime desc course{id code name type} family{id name avatarUrl}}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>query{accountSpendingList(input: {accountId: '', week=-1}){id money occurTime desc course{id code name type} family{id name avatarUrl}}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>query{accountMoneySummary(accountId: ''){id openId nickname avatarUrl family{id name avatarUrl} recent{budgets:[{year money}] incomes[{year money}] spendings[{year money}]} current{income{total byMonth[money]} spendings{total byMonth[money]}}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>query{familySpendingList(input: {familyId: '', year=2018}){id money occurTime desc course{id code name type} family{id name avatarUrl} owner{id openId nickname avatarUrl}}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>query{familySpendingList(input: {familyId: '', year=2018, month=10}){id money occurTime desc course{id code name type} family{id name avatarUrl} owner{id openId nickname avatarUrl}}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>query{familySpendingList(input: {familyId: '', week=0}){id money occurTime desc course{id code name type} family{id name avatarUrl} owner{id openId nickname avatarUrl}}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>query{familySpendingList(input: {familyId: '', week: -1}){id money occurTime desc course{id code name type} family{id name avatarUrl} owner{id openId nickname avatarUrl}}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>query{familyMoneySummary(familyId: ''){id name avatarUrl recent{budgets[{year money}] incomes{total byMonth[money] byMember[{nickname money}]} spendings{total byMonth[money] byMember[{nickname money}]}} current{budget income{total byMonth[money] byMember[{nickname money}]} spending{total byMonth[money] byMember[{nickname money}]}}}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1582,6 +2123,29 @@
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Abadi MT Condensed Extra Bold"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1674,12 +2238,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1703,13 +2267,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1718,7 +2282,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1727,7 +2291,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1742,8 +2306,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2126,7 +2709,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -2136,11 +2719,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView zoomScale="85" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3367,7 +3950,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A6:J45"/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D46:D47">
       <formula1>"未开始,正在开发,已完成,已废弃"</formula1>
@@ -3385,4 +3968,470 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:F42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D7" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.1640625" customWidth="1"/>
+    <col min="3" max="3" width="36.1640625" customWidth="1"/>
+    <col min="5" max="5" width="52.1640625" customWidth="1"/>
+    <col min="6" max="6" width="42" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B2" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B3" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="7" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="2:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="B5" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="27"/>
+      <c r="C7" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="27"/>
+      <c r="C8" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="F8" s="28"/>
+    </row>
+    <row r="9" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="27"/>
+      <c r="C11" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="F11" s="28"/>
+    </row>
+    <row r="12" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="F12" s="28"/>
+    </row>
+    <row r="13" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="27"/>
+      <c r="C13" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="F13" s="28"/>
+    </row>
+    <row r="14" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="27"/>
+      <c r="C14" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="F14" s="28"/>
+    </row>
+    <row r="15" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="27"/>
+      <c r="C15" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="F15" s="28"/>
+    </row>
+    <row r="16" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="27"/>
+      <c r="C16" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="F16" s="28"/>
+    </row>
+    <row r="17" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="27"/>
+      <c r="C17" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="F17" s="28"/>
+    </row>
+    <row r="18" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="27"/>
+      <c r="C18" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="F18" s="28"/>
+    </row>
+    <row r="19" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="27"/>
+      <c r="C19" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="F19" s="28"/>
+    </row>
+    <row r="20" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="27"/>
+      <c r="C20" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="F20" s="28"/>
+    </row>
+    <row r="21" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="27"/>
+      <c r="C21" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="F21" s="28"/>
+    </row>
+    <row r="22" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="27"/>
+      <c r="C22" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="F22" s="28"/>
+    </row>
+    <row r="23" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="27"/>
+      <c r="C23" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="F23" s="28"/>
+    </row>
+    <row r="24" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="27"/>
+      <c r="C24" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="F24" s="28"/>
+    </row>
+    <row r="25" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="27"/>
+      <c r="C25" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="F25" s="28"/>
+    </row>
+    <row r="26" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="27"/>
+      <c r="C26" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="F26" s="28"/>
+    </row>
+    <row r="27" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="27"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+    </row>
+    <row r="28" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="27"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+    </row>
+    <row r="29" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="27"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+    </row>
+    <row r="30" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="27"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+    </row>
+    <row r="31" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="27"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+    </row>
+    <row r="32" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="27"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+    </row>
+    <row r="33" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="27"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+    </row>
+    <row r="34" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="27"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+    </row>
+    <row r="35" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="27"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+    </row>
+    <row r="36" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="27"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+    </row>
+    <row r="37" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="27"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+    </row>
+    <row r="38" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="27"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+    </row>
+    <row r="39" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="27"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+    </row>
+    <row r="40" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="27"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+    </row>
+    <row r="41" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="27"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+    </row>
+    <row r="42" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="27"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D42">
+      <formula1>"高,中,低"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/mx/apps/tools/family-fee/design/前后端接口设计.xlsx
+++ b/mx/apps/tools/family-fee/design/前后端接口设计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="12780" windowHeight="16920" activeTab="2"/>
+    <workbookView xWindow="7240" yWindow="460" windowWidth="21560" windowHeight="16920" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="接口设计规范" sheetId="1" r:id="rId1"/>
@@ -32,57 +32,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="250">
   <si>
     <t>DELETE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>GET</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>POST</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>应用场景</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>RestFul请求方式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>获取数据</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>删除操作</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>示例</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>提交数据，如插入操作</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>修改数据</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>PUT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>无</t>
     <rPh sb="0" eb="1">
       <t>wu</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>GET</t>
@@ -119,15 +119,15 @@
   </si>
   <si>
     <t>已完成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>正在开发</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>未开始</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>PUT</t>
@@ -139,7 +139,7 @@
   "Object": "data" ,
   "Object": "pagination" 
 }</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">rerrorCode为返回结果：成功为0、失败为非0；errorMessage为出错信息，‘data为数据，此处为object，后边世界接口设计过程返回只需要描述data部分
@@ -153,25 +153,25 @@
     <rPh sb="24" eb="25">
       <t>fei ling</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>请求方式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>模块</t>
     <rPh sb="0" eb="1">
       <t>mo k</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>系统</t>
     <rPh sb="0" eb="1">
       <t>xi t</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>DELETE</t>
@@ -184,7 +184,7 @@
     <rPh sb="1" eb="2">
       <t>ce shi</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>使用用户名/口令登入系统</t>
@@ -203,43 +203,43 @@
     <rPh sb="10" eb="11">
       <t>xi t</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>@Path("stores")
 @GET
 Public Response getStore(@QueryParam (“uuid”) String uuid){}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>@Path("stores/{uuid}")
 @DELETE
 Public Response deleteStore(@PathParam(“uuid”) String uuid){}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>@Path("stores/{uuid}")
 @PUT
 Public Response updateStore(@PathParam(“uuid”) String uuid,StoreInfoFormVO vo){}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>@Path("stores/new")
 @POST
 Public Response createStore(StoreInfoFormVO vo){}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Restful请求
 返回规范</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>注意：</t>
     <rPh sb="0" eb="1">
       <t>zhu yi</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>除登录请求外，所有的RESTful请求必须在HTTP请求头中加入“token”或“Authorization”，其值为登录成功后本地缓存的token。</t>
@@ -312,7 +312,7 @@
     <rPh sb="68" eb="69">
       <t>de</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>注册并登入系统</t>
@@ -328,7 +328,7 @@
     <rPh sb="5" eb="6">
       <t>xi t</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>未开始</t>
@@ -347,7 +347,7 @@
     <rPh sb="4" eb="5">
       <t>ke mu</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>添加一个新科目</t>
@@ -363,7 +363,7 @@
     <rPh sb="5" eb="6">
       <t>ke mu</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>修改指定科目</t>
@@ -376,7 +376,7 @@
     <rPh sb="4" eb="5">
       <t>ke m</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>删除指定科目</t>
@@ -389,21 +389,21 @@
     <rPh sb="4" eb="5">
       <t>ke m</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>科目</t>
     <rPh sb="0" eb="1">
       <t>ke mu</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>家庭</t>
     <rPh sb="0" eb="1">
       <t>jia t</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>家庭二维码，便于加入家庭</t>
@@ -422,7 +422,7 @@
     <rPh sb="10" eb="11">
       <t>jia t</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>加入指定家庭</t>
@@ -435,7 +435,7 @@
     <rPh sb="4" eb="5">
       <t>jia t</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>创建新家庭</t>
@@ -448,7 +448,7 @@
     <rPh sb="3" eb="4">
       <t>jia ting</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>获取指定家庭信息</t>
@@ -464,14 +464,14 @@
     <rPh sb="6" eb="7">
       <t>xin xi</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>预算</t>
     <rPh sb="0" eb="1">
       <t>yu suan</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>获取年度预算</t>
@@ -484,7 +484,7 @@
     <rPh sb="4" eb="5">
       <t>yu suan</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>获取所有收入</t>
@@ -497,14 +497,14 @@
     <rPh sb="4" eb="5">
       <t>shou ru</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>收入</t>
     <rPh sb="0" eb="1">
       <t>shou ru</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>获取指定年度收入</t>
@@ -520,7 +520,7 @@
     <rPh sb="6" eb="7">
       <t>shou r</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>记录一笔新收入</t>
@@ -536,7 +536,7 @@
     <rPh sb="5" eb="6">
       <t>shou ru</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>修改指定收入</t>
@@ -549,7 +549,7 @@
     <rPh sb="4" eb="5">
       <t>shou ru</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>删除指定收入</t>
@@ -562,14 +562,14 @@
     <rPh sb="4" eb="5">
       <t>shou r</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>支出</t>
     <rPh sb="0" eb="1">
       <t>zhi chu</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>获取所有支出</t>
@@ -582,7 +582,7 @@
     <rPh sb="4" eb="5">
       <t>zhi chu</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>获取指定年度支出</t>
@@ -598,7 +598,7 @@
     <rPh sb="6" eb="7">
       <t>zhi chu</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>获取指定月份支出</t>
@@ -614,7 +614,7 @@
     <rPh sb="6" eb="7">
       <t>zhi chu</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>记录一笔新支出</t>
@@ -630,7 +630,7 @@
     <rPh sb="5" eb="6">
       <t>zhi chu</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>修改指定支出</t>
@@ -643,7 +643,7 @@
     <rPh sb="4" eb="5">
       <t>zhi chu</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>删除指定支出</t>
@@ -656,14 +656,14 @@
     <rPh sb="4" eb="5">
       <t>zhi chu</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>统计</t>
     <rPh sb="0" eb="1">
       <t>tong ji</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>月度账单</t>
@@ -673,7 +673,7 @@
     <rPh sb="2" eb="3">
       <t>zhang dan</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>年度账单</t>
@@ -683,7 +683,7 @@
     <rPh sb="2" eb="3">
       <t>zhang dan</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>低</t>
@@ -702,7 +702,7 @@
     <rPh sb="6" eb="7">
       <t>xiang</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>修改指定预算项</t>
@@ -718,7 +718,7 @@
     <rPh sb="6" eb="7">
       <t>xiang</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>添加一个新预算项</t>
@@ -737,7 +737,7 @@
     <rPh sb="7" eb="8">
       <t>xiang</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>获取本周支出</t>
@@ -750,63 +750,63 @@
     <rPh sb="4" eb="5">
       <t>zhi chu</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>/rest/v1/families/new</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>/rest/v1/families/{familyId}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>/rest/v1/families/{familyId}/join</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>/rest/v1/courses</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>/rest/v1/courses/new</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>/rest/v1/courses/{courseId}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>/rest/v1/budgets/new</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>/rest/v1/budgets/{budgetId}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>/rest/v1/incomes/new</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>/rest/v1/incomes/{incomeId}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>/rest/v1/spendings/new</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>/rest/v1/spendings/{spendingId}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>/rest/v1/accounts/{accountId}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>/rest/v1/accounts/registry</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>查看指定账户的访问历史</t>
@@ -828,7 +828,7 @@
     <rPh sb="9" eb="10">
       <t>li shi</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>获取指定账户信息</t>
@@ -844,7 +844,7 @@
     <rPh sb="6" eb="7">
       <t>xin xi</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>修改账户信息</t>
@@ -857,7 +857,7 @@
     <rPh sb="4" eb="5">
       <t>xin xi</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>修改指定家庭信息</t>
@@ -873,7 +873,7 @@
     <rPh sb="6" eb="7">
       <t>xin xi</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>获取指定的科目</t>
@@ -889,23 +889,23 @@
     <rPh sb="5" eb="6">
       <t>ke mu</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>/rest/v1/incomes/families/{familyId}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>/rest/v1/spendings/families/{familyId}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>/rest/v1/bills/families/{familyId}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>/rest/v1/budgets/families/{familyId}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -918,7 +918,7 @@
 'province':'',
 'city': ''
 }</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -941,7 +941,7 @@
 'province':'',
 'city':''
 }</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>[{
@@ -955,14 +955,14 @@
 'latitude':0.0,
 'longitude': 0.0
 }]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>无</t>
     <rPh sb="0" eb="1">
       <t>w</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -977,7 +977,7 @@
 "type": "",
 "owner": {account}
 }</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -996,7 +996,7 @@
 "isOwner": true
 }]
 }</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -1011,7 +1011,7 @@
 "family": {family},
 "course": {course}
 }</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -1027,7 +1027,7 @@
 "course": {course},
 "owner": {account}
 }</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>[{
@@ -1043,7 +1043,7 @@
 "course": {course},
 "owner": {account}
 }]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>获取指定openId所属的家庭信息</t>
@@ -1065,11 +1065,11 @@
     <rPh sb="15" eb="16">
       <t>xin xi</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>/rest/v1/family</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>获取指定账户和家庭信息，使用openId</t>
@@ -1094,7 +1094,7 @@
     <rPh sb="12" eb="13">
       <t>shi yong</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>根据指定的openId，获取对应的账户和家庭信息</t>
@@ -1128,46 +1128,46 @@
     <rPh sb="22" eb="23">
       <t>xin xi</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>{
 "account": {account},
 "family": {family}
 }</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>userCode=openId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>userCode=openId&amp;startTime=long&amp;endTime=long</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>userCode=openId&amp;year=int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>userCode=openId&amp;year=int&amp;month=int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>userCode=openId&amp;week=now</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>/rest/v1/summary</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>/rest/v1/account</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>/rest/v1/logs</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -1185,7 +1185,7 @@
 'city': '',
 'gender':'MALE'
 }</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -1195,7 +1195,7 @@
 "desc": "",
 "avatarUrl": ""
 }</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -1207,7 +1207,7 @@
 "type": "",
 "ownerId": ""
 }</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -1219,7 +1219,7 @@
 "year": 2019,
 "money": 0.0
 }</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -1232,7 +1232,7 @@
 "money": 0.0,
 "occurTime": 0
 }</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>未测试</t>
@@ -1257,15 +1257,15 @@
     <rPh sb="9" eb="10">
       <t>ke mu</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>/rest/v1/courses/families/{familyId}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>userCode=openId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -1275,7 +1275,7 @@
 "desc": "",
 "type": ""
 }</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>修改家庭头像</t>
@@ -1288,7 +1288,7 @@
     <rPh sb="4" eb="5">
       <t>tou x</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>获取家庭头像</t>
@@ -1301,7 +1301,7 @@
     <rPh sb="4" eb="5">
       <t>tou x</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>获取家庭二维码</t>
@@ -1314,23 +1314,23 @@
     <rPh sb="4" eb="5">
       <t>er wei ma</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>/rest/v1/families/{familyId}/avatar</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>/rest/v1/families/{familyId}/qrcode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>File</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>String</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>上传一个图片文件作为家庭头像，并返回头像的URL供后续保存</t>
@@ -1376,7 +1376,7 @@
     <rPh sb="27" eb="28">
       <t>bao cun</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>获取家庭头像，以流式返回文件</t>
@@ -1398,7 +1398,7 @@
     <rPh sb="12" eb="13">
       <t>wen j</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>获取家庭二维码，以流式返回文件</t>
@@ -1423,7 +1423,7 @@
     <rPh sb="13" eb="14">
       <t>wen j</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>修改账户头像</t>
@@ -1436,7 +1436,7 @@
     <rPh sb="4" eb="5">
       <t>tou x</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>获取账户头像</t>
@@ -1449,11 +1449,11 @@
     <rPh sb="4" eb="5">
       <t>tou x</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>/rest/v1/accounts/{accountId}/avatar</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>上传一张图片作为账户投入，并返回URL供后续操作</t>
@@ -1487,7 +1487,7 @@
     <rPh sb="22" eb="23">
       <t>cao z</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>以流式返回文件</t>
@@ -1503,37 +1503,37 @@
     <rPh sb="5" eb="6">
       <t>wen j</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>URL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Method</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>POST</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>http://ip:port/rest/v1/graph</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>POST数据</t>
     <rPh sb="4" eb="5">
       <t>shu ju</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
     <rPh sb="0" eb="1">
       <t>bei zhu</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>根据openId或者账户信息</t>
@@ -1549,7 +1549,7 @@
     <rPh sb="12" eb="13">
       <t>xin xi</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>根据id获取账户信息</t>
@@ -1565,7 +1565,7 @@
     <rPh sb="8" eb="9">
       <t>xin xi</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>根据accountId获取相关日志列表</t>
@@ -1584,7 +1584,7 @@
     <rPh sb="17" eb="18">
       <t>lie b</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>获取家庭年度预算</t>
@@ -1600,7 +1600,7 @@
     <rPh sb="6" eb="7">
       <t>yu suan</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>获取家庭所有科目</t>
@@ -1616,7 +1616,7 @@
     <rPh sb="6" eb="7">
       <t>ke m</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>根据id获取科目信息</t>
@@ -1632,14 +1632,14 @@
     <rPh sb="8" eb="9">
       <t>xin xi</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>家庭</t>
     <rPh sb="0" eb="1">
       <t>jia ting</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>根据id获取家庭信息</t>
@@ -1655,7 +1655,7 @@
     <rPh sb="8" eb="9">
       <t>xin xi</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>根据familyId获取上周支出明细</t>
@@ -1674,7 +1674,7 @@
     <rPh sb="16" eb="17">
       <t>ming xi</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>根据familyId获取本周支出明细</t>
@@ -1690,7 +1690,7 @@
     <rPh sb="14" eb="15">
       <t>zhi chu</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>根据familyId获取年度/月份支出明细</t>
@@ -1709,7 +1709,7 @@
     <rPh sb="17" eb="18">
       <t>zhi chu</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>根据accountId获取上周支出明细</t>
@@ -1725,7 +1725,7 @@
     <rPh sb="15" eb="16">
       <t>zhi chu</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>根据familyId获取年度支出明细</t>
@@ -1741,7 +1741,7 @@
     <rPh sb="14" eb="15">
       <t>zhi chu</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>根据accountId获取本周支出明细</t>
@@ -1757,7 +1757,7 @@
     <rPh sb="15" eb="16">
       <t>zhi chu</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>根据accountId获取年度/月份支出明细</t>
@@ -1776,7 +1776,7 @@
     <rPh sb="18" eb="19">
       <t>zhi chu</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>根据accountId获取年度支出明细</t>
@@ -1792,7 +1792,7 @@
     <rPh sb="15" eb="16">
       <t>zhi chu</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>根据familyId获取年度/月份收入明细</t>
@@ -1811,7 +1811,7 @@
     <rPh sb="17" eb="18">
       <t>shou r</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>根据familyId获取年度收入明细</t>
@@ -1827,7 +1827,7 @@
     <rPh sb="14" eb="15">
       <t>shou r</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>根据accountId获取年度/月份收入明细</t>
@@ -1846,7 +1846,7 @@
     <rPh sb="18" eb="19">
       <t>shou r</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>根据accountId获取年度收入明细</t>
@@ -1862,7 +1862,7 @@
     <rPh sb="15" eb="16">
       <t>shou ru</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>根据familyId获取收入和支出总览情况</t>
@@ -1887,7 +1887,7 @@
     <rPh sb="19" eb="20">
       <t>qing k</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>根据accountId获取收入和支出总览情况</t>
@@ -1912,142 +1912,538 @@
     <rPh sb="20" eb="21">
       <t>qing k</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>query{family(id:''){id name avatarUrl desc members[{id role ffeeAccount{id openId nickname avatarUrl mobile} isOwner}]}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>query{account(input: {id: ''}){id openId nickname mobile gender avatarUrl city}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>query{account(input: {openId: ''}){id openId nickname mobile gender avatarUrl city}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>query{budgetList(input:{familyId: '', year=2018}){id year money desc course{id code name order isPublic} family{id name avatarUrl}}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>query{courseList(input: {familyId: ''}){id type code name desc order isPublic}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>query{course(input:{id: ''}){id type code name desc order isPublic}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>input: AccountQueryInput</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>input: CourseQueryInput，如果family.isBlank则返回公共科目</t>
-    <rPh sb="24" eb="25">
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>query{accessLogList(input:{accountId: '',familyId: ''}){id conent latitude longitude account{id openId nickname mobile gender avatarUrl}}}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>query{accountIncomeList(input:{accountId: '', year=2018}){id money occurTime desc course{id code name type} family{id name avatarUrl}}}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>query{accountIncomeList(input:{accountId: '', year=2019, month=10}){id money occurTime desc course{id code name type} family{id name avatarUrl}}}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>query{familyIncomeList(input:{familyId: '', year=2018}){id money occurTime desc course{id code name type} family{id name avatarUrl} owner{id openId nickname avatarUrl}}}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>query{familyIncomeList(input: {familyId: '', year=2019, month=10}){id money occurTime desc course{id code name type} family{id name avatarUrl} owner{id openId nickname avatarUrl}}}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>query{accountSpendingList(input: {accountId: '', year=2018}){id money occurTime desc course{id code name type} family{id name avatarUrl}}}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>query{accountSpendingList(input: {accountId: '', year=2018, month=10}){id money occurTime desc course{id code name type} family{id name avatarUrl}}}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>query{accountSpendingList(input: {accountId: '', week=0}){id money occurTime desc course{id code name type} family{id name avatarUrl}}}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>query{accountSpendingList(input: {accountId: '', week=-1}){id money occurTime desc course{id code name type} family{id name avatarUrl}}}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>query{accountMoneySummary(accountId: ''){id openId nickname avatarUrl family{id name avatarUrl} recent{budgets:[{year money}] incomes[{year money}] spendings[{year money}]} current{income{total byMonth[money]} spendings{total byMonth[money]}}}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>query{familySpendingList(input: {familyId: '', year=2018}){id money occurTime desc course{id code name type} family{id name avatarUrl} owner{id openId nickname avatarUrl}}}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>query{familySpendingList(input: {familyId: '', year=2018, month=10}){id money occurTime desc course{id code name type} family{id name avatarUrl} owner{id openId nickname avatarUrl}}}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>query{familySpendingList(input: {familyId: '', week=0}){id money occurTime desc course{id code name type} family{id name avatarUrl} owner{id openId nickname avatarUrl}}}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>query{familySpendingList(input: {familyId: '', week: -1}){id money occurTime desc course{id code name type} family{id name avatarUrl} owner{id openId nickname avatarUrl}}}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>query{familyMoneySummary(familyId: ''){id name avatarUrl recent{budgets[{year money}] incomes{total byMonth[money] byMember[{nickname money}]} spendings{total byMonth[money] byMember[{nickname money}]}} current{budget income{total byMonth[money] byMember[{nickname money}]} spending{total byMonth[money] byMember[{nickname money}]}}}}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别</t>
+    <rPh sb="0" eb="1">
+      <t>lei b</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>状态</t>
+    <rPh sb="0" eb="1">
+      <t>zhuang t</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在开发</t>
+  </si>
+  <si>
+    <t>接口内容</t>
+    <rPh sb="0" eb="1">
+      <t>jie k</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>nei r</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>account(input: AccountQueryInput!): AccountSummary</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>accessLogList(input: AccessLogQueryInput!): [AccessLog]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>budgetItemList(input: BudgetQueryInput!): [BudgetItem]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>courseList(familyId: String): [Course]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>query{courseList(familyId: ''){id type code name desc order isPublic}}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>course(id: String!): Course</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>family(id: String!): Family</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>accountIncomeList(input: AccountMoneyQueryInput!): [Income]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>familyIncomeList(input: FamilyMoneyQueryInput!): [Income]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>accountSpendingList(input: AccountMoneyQueryInput!): [Spending]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>familySpendingList(input: FamilyMoneyQueryInput!): [Spending]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>accountMoneySummary(accountId: String!): AccountMoneySummary</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>familyMoneySummary(familyId: String!): FamilyMoneySummary</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册账户信息</t>
+    <rPh sb="0" eb="1">
+      <t>zhu ce</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhang hu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xin x</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>saveAccount(op: OperateType!, input: AccountInfoInput!): AccountSummary</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mutation</t>
+  </si>
+  <si>
+    <t>根据id修改账户信息</t>
+    <rPh sb="0" eb="1">
+      <t>gen ju</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xiu g</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhang hu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xin xi</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据id修改预算条目</t>
+    <rPh sb="0" eb="1">
+      <t>gen ju</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xiu g</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yu s</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>tiao mu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>saveBudgetItem(op: OperateType!, input: BudgetItemInfoInput): BudgetItem</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据id逻辑删除预算条目</t>
+    <rPh sb="0" eb="1">
+      <t>gen ju</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>luo ji</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shan chu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yu s</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>tiao mu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>saveCourse(op: OperateType!, input: CourseInfoInput): Course</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据id修改家庭信息</t>
+    <rPh sb="0" eb="1">
+      <t>gen ju</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xiu g</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jia t</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xin xi</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据id加入家庭</t>
+    <rPh sb="0" eb="1">
+      <t>gen ju</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jia ru</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jia t</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>saveFamily(op: OperateType!, input: FamilyInfoInput): Family</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增或根据id修改收入信息</t>
+    <rPh sb="0" eb="1">
+      <t>xin z</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>huo</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>gen ju</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xiu g</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shou ru</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>xin xi</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据id删除收入信息</t>
+    <rPh sb="0" eb="1">
+      <t>gen ju</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shan chu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shou ru</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xin xi</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增或根据id修改支出信息</t>
+    <rPh sb="0" eb="1">
+      <t>xin z</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>huo</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>gen ju</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xiu g</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zhi chu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>xin xi</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据id删除支出信息</t>
+    <rPh sb="0" eb="1">
+      <t>gen ju</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shan chu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhi chu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xin xi</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>saveIncome(op: OperateType!, input: MoneyInfoInput): Income</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>saveSpending(op: OperateType!, input: MoneyInfoInput): Spending</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mutation{saveAccount(op: "REGISTRY", input: {openId: '', nickname: '', mobile: '', email: '', wx: '', qq: '', wb: '', avatarUrl: '', country:'', province: '', ciity: ''}){id openId nickname mobile email avatarUrl}}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mutation{saveBudgetItem(op: "SAVE", input: {id: '', courseId: '', familyId: '', desc: '', year: 0, ownerId: '', type: '', valid: true}){id course{id code name} family{id name avatarUrl} desc year owner{id nickname avatarUrl} type valid}}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mutation{saveBudgetItem(op: "DELTE", input: {id: ''}){id course{id code name} family{id name avatarUrl} desc year owner{id nickname avatarUrl} type valid}}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>muation{saveCourse(op: 'SAVE', input: {id: '',code: '', name: '', desc: '', ownerId: '', type: '', valid: true}){id code name desc type isPublic}}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据id修改科目信息</t>
+    <rPh sb="0" eb="1">
+      <t>gen ju</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xiu g</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ke m</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xin xi</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据id逻辑删除科目信息</t>
+    <rPh sb="0" eb="1">
+      <t>gen ju</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>luo ji</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shan chu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ke mu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xin xi</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>muation{saveCourse(op: 'DELETE', input: {id: ''}){id code name desc type isPublic}}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mutation{saveFamily(op: 'SAVE', input: {id: '', name: '', desc: '', avatarUrl: '',members: [{id: '', role: '', accountId: '', isOwner: true}] valid: true}){id name desc avatarUrl members{id role isOwner account{id nickname openId avatarUrl}}}}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mutation{saveFamily(op: 'JOIN', input: {id: '',members: [{id: '', role: '', accountId: '', isOwner: true}]}){id name desc avatarUrl members{id role isOwner account{id nickname openId avatarUrl}}}}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mutation{saveIncome(op: 'SAVE', input: {id:'', familyId: '', courseId: '', ownerId: '', desc: '', money: 0.0, occurTime: 0}){id family{id name avatarUrl} course{id code name} money occurTime desc owner{id nickname avatarUrl}}}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mutation{saveIncome(op: 'DELETE', input: {id:''}){id family{id name avatarUrl} course{id code name} money occurTime desc owner{id nickname avatarUrl}}}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mutation{saveSpending(op: 'SAVE', input: {id:'', familyId: '', courseId: '', ownerId: '', desc: '', money: 0.0, occurTime: 0}){id family{id name avatarUrl} course{id code name} money occurTime desc owner{id nickname avatarUrl}}}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mutation{saveSpending(op: 'DELETE', input: {id:''}){id family{id name avatarUrl} course{id code name} money occurTime desc owner{id nickname avatarUrl}}}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>收支</t>
+    <rPh sb="0" eb="1">
+      <t>shou zhi</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mutation{saveAccount(op: "SAVE", input: {id: '', nickname: '', mobile: '', email: '', wx: '', qq: '', wb: '', avatarUrl: '', country:'', province: '', ciity: ''}){id openId nickname mobile email avatarUrl}}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+  </si>
+  <si>
+    <t>如果family.isBlank则返回公共科目</t>
+    <rPh sb="0" eb="1">
       <t>ru g</t>
     </rPh>
-    <rPh sb="40" eb="41">
+    <rPh sb="16" eb="17">
       <t>ze</t>
     </rPh>
-    <rPh sb="41" eb="42">
+    <rPh sb="17" eb="18">
       <t>fan h</t>
     </rPh>
-    <rPh sb="43" eb="44">
+    <rPh sb="19" eb="20">
       <t>gong g</t>
     </rPh>
-    <rPh sb="45" eb="46">
+    <rPh sb="21" eb="22">
       <t>ke mu</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>input: FamilyMoneyQueryInput，如果year&lt;=0则取当年</t>
-    <rPh sb="29" eb="30">
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果year&lt;=0则取当年</t>
+    <rPh sb="0" eb="1">
       <t>ru g</t>
     </rPh>
-    <rPh sb="38" eb="39">
+    <rPh sb="9" eb="10">
       <t>ze</t>
     </rPh>
-    <rPh sb="39" eb="40">
+    <rPh sb="10" eb="11">
       <t>qu</t>
     </rPh>
-    <rPh sb="40" eb="41">
+    <rPh sb="11" eb="12">
       <t>dang n</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>query{accessLogList(input:{accountId: '',familyId: ''}){id conent latitude longitude account{id openId nickname mobile gender avatarUrl}}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>query{accountIncomeList(input:{accountId: '', year=2018}){id money occurTime desc course{id code name type} family{id name avatarUrl}}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>query{accountIncomeList(input:{accountId: '', year=2019, month=10}){id money occurTime desc course{id code name type} family{id name avatarUrl}}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>query{familyIncomeList(input:{familyId: '', year=2018}){id money occurTime desc course{id code name type} family{id name avatarUrl} owner{id openId nickname avatarUrl}}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>query{familyIncomeList(input: {familyId: '', year=2019, month=10}){id money occurTime desc course{id code name type} family{id name avatarUrl} owner{id openId nickname avatarUrl}}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>query{accountSpendingList(input: {accountId: '', year=2018}){id money occurTime desc course{id code name type} family{id name avatarUrl}}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>query{accountSpendingList(input: {accountId: '', year=2018, month=10}){id money occurTime desc course{id code name type} family{id name avatarUrl}}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>query{accountSpendingList(input: {accountId: '', week=0}){id money occurTime desc course{id code name type} family{id name avatarUrl}}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>query{accountSpendingList(input: {accountId: '', week=-1}){id money occurTime desc course{id code name type} family{id name avatarUrl}}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>query{accountMoneySummary(accountId: ''){id openId nickname avatarUrl family{id name avatarUrl} recent{budgets:[{year money}] incomes[{year money}] spendings[{year money}]} current{income{total byMonth[money]} spendings{total byMonth[money]}}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>query{familySpendingList(input: {familyId: '', year=2018}){id money occurTime desc course{id code name type} family{id name avatarUrl} owner{id openId nickname avatarUrl}}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>query{familySpendingList(input: {familyId: '', year=2018, month=10}){id money occurTime desc course{id code name type} family{id name avatarUrl} owner{id openId nickname avatarUrl}}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>query{familySpendingList(input: {familyId: '', week=0}){id money occurTime desc course{id code name type} family{id name avatarUrl} owner{id openId nickname avatarUrl}}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>query{familySpendingList(input: {familyId: '', week: -1}){id money occurTime desc course{id code name type} family{id name avatarUrl} owner{id openId nickname avatarUrl}}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>query{familyMoneySummary(familyId: ''){id name avatarUrl recent{budgets[{year money}] incomes{total byMonth[money] byMember[{nickname money}]} spendings{total byMonth[money] byMember[{nickname money}]}} current{budget income{total byMonth[money] byMember[{nickname money}]} spending{total byMonth[money] byMember[{nickname money}]}}}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>各模块写操作日志尚未完成</t>
+    <rPh sb="0" eb="1">
+      <t>ge</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>mo k</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xie</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>cao z</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ri zhi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shang wei</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>wan ch</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2147,6 +2543,13 @@
       <color theme="0"/>
       <name val="Abadi MT Condensed Extra Bold"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -2238,12 +2641,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2267,13 +2670,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2282,7 +2685,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2291,7 +2694,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2306,27 +2709,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2709,7 +3139,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -2723,7 +3153,7 @@
       <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2956,63 +3386,63 @@
       </c>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="3" t="s">
+    <row r="12" spans="1:10" s="36" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="31"/>
+      <c r="B12" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="D12" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="E12" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="32" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="3" t="s">
+    <row r="13" spans="1:10" s="36" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="31"/>
+      <c r="B13" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="E13" s="3" t="s">
+      <c r="D13" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="E13" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="J13" s="32" t="s">
         <v>147</v>
       </c>
     </row>
@@ -3160,93 +3590,93 @@
       </c>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
-      <c r="B19" s="3" t="s">
+    <row r="19" spans="1:10" s="36" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="31"/>
+      <c r="B19" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="E19" s="3" t="s">
+      <c r="D19" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="E19" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="H19" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="I19" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="J19" s="32" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
-      <c r="B20" s="3" t="s">
+    <row r="20" spans="1:10" s="36" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="31"/>
+      <c r="B20" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="E20" s="3" t="s">
+      <c r="D20" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="E20" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H20" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="I20" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="J20" s="32" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
-      <c r="B21" s="3" t="s">
+    <row r="21" spans="1:10" s="36" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="31"/>
+      <c r="B21" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="E21" s="3" t="s">
+      <c r="D21" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="E21" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="H21" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="I21" s="6" t="s">
+      <c r="I21" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="J21" s="32" t="s">
         <v>142</v>
       </c>
     </row>
@@ -3950,7 +4380,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A6:J45"/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D46:D47">
       <formula1>"未开始,正在开发,已完成,已废弃"</formula1>
@@ -3972,42 +4402,49 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F42"/>
+  <dimension ref="B1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D7" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D12" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.1640625" customWidth="1"/>
-    <col min="3" max="3" width="36.1640625" customWidth="1"/>
-    <col min="5" max="5" width="52.1640625" customWidth="1"/>
-    <col min="6" max="6" width="42" customWidth="1"/>
+    <col min="3" max="4" width="36.1640625" customWidth="1"/>
+    <col min="5" max="6" width="15.1640625" customWidth="1"/>
+    <col min="8" max="8" width="52.1640625" customWidth="1"/>
+    <col min="9" max="9" width="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:9" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B2" s="26" t="s">
         <v>148</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+    </row>
+    <row r="3" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B3" s="26" t="s">
         <v>149</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" ht="7" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="2:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+    </row>
+    <row r="4" spans="2:9" ht="7" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="2:9" ht="19" x14ac:dyDescent="0.2">
       <c r="B5" s="24" t="s">
         <v>30</v>
       </c>
@@ -4015,423 +4452,820 @@
         <v>15</v>
       </c>
       <c r="D5" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="G5" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="H5" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="I5" s="25" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="27" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G6" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="H6" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="F6" s="28" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I6" s="28"/>
+    </row>
+    <row r="7" spans="2:9" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="27"/>
       <c r="C7" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G7" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="H7" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="F7" s="28" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I7" s="28"/>
+    </row>
+    <row r="8" spans="2:9" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="27"/>
       <c r="C8" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G8" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="28" t="s">
-        <v>185</v>
-      </c>
-      <c r="F8" s="28"/>
-    </row>
-    <row r="9" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="27" t="s">
+      <c r="H8" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="27"/>
+      <c r="C9" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="37" t="s">
+        <v>231</v>
+      </c>
+      <c r="I9" s="28"/>
+    </row>
+    <row r="10" spans="2:9" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="27"/>
+      <c r="C10" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="37" t="s">
+        <v>245</v>
+      </c>
+      <c r="I10" s="28"/>
+    </row>
+    <row r="11" spans="2:9" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C11" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D11" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G11" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="H11" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="F9" s="28" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="27" t="s">
+      <c r="I11" s="37" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="27"/>
+      <c r="C12" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="37" t="s">
+        <v>232</v>
+      </c>
+      <c r="I12" s="28"/>
+    </row>
+    <row r="13" spans="2:9" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="27"/>
+      <c r="C13" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="I13" s="28"/>
+    </row>
+    <row r="14" spans="2:9" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C14" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D14" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G14" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="F10" s="28" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="27"/>
-      <c r="C11" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="F11" s="28"/>
-    </row>
-    <row r="12" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="27" t="s">
-        <v>160</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="F12" s="28"/>
-    </row>
-    <row r="13" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="27"/>
-      <c r="C13" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="F13" s="28"/>
-    </row>
-    <row r="14" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="27"/>
-      <c r="C14" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="F14" s="28"/>
-    </row>
-    <row r="15" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H14" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="I14" s="37" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="27"/>
       <c r="C15" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="D15" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G15" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="F15" s="28"/>
-    </row>
-    <row r="16" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H15" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="I15" s="28"/>
+    </row>
+    <row r="16" spans="2:9" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="27"/>
-      <c r="C16" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="D16" s="29" t="s">
+      <c r="C16" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G16" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="F16" s="28"/>
-    </row>
-    <row r="17" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H16" s="37" t="s">
+        <v>234</v>
+      </c>
+      <c r="I16" s="28"/>
+    </row>
+    <row r="17" spans="2:9" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="27"/>
-      <c r="C17" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="D17" s="29" t="s">
+      <c r="C17" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G17" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="F17" s="28"/>
-    </row>
-    <row r="18" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="27"/>
+      <c r="H17" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="I17" s="28"/>
+    </row>
+    <row r="18" spans="2:9" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="27" t="s">
+        <v>160</v>
+      </c>
       <c r="C18" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="D18" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G18" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="F18" s="28"/>
-    </row>
-    <row r="19" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H18" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="I18" s="28"/>
+    </row>
+    <row r="19" spans="2:9" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="27"/>
-      <c r="C19" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="D19" s="29" t="s">
+      <c r="C19" s="37" t="s">
+        <v>222</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G19" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="28" t="s">
-        <v>192</v>
-      </c>
-      <c r="F19" s="28"/>
-    </row>
-    <row r="20" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H19" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="I19" s="28"/>
+    </row>
+    <row r="20" spans="2:9" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="27"/>
-      <c r="C20" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="D20" s="29" t="s">
+      <c r="C20" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G20" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="28" t="s">
-        <v>193</v>
-      </c>
-      <c r="F20" s="28"/>
-    </row>
-    <row r="21" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="27"/>
-      <c r="C21" s="30" t="s">
-        <v>175</v>
-      </c>
-      <c r="D21" s="29" t="s">
+      <c r="H20" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="I20" s="28"/>
+    </row>
+    <row r="21" spans="2:9" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="39" t="s">
+        <v>244</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>225</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G21" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="30" t="s">
-        <v>194</v>
-      </c>
-      <c r="F21" s="28"/>
-    </row>
-    <row r="22" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H21" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="I21" s="28"/>
+    </row>
+    <row r="22" spans="2:9" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="27"/>
-      <c r="C22" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="D22" s="29" t="s">
+      <c r="C22" s="37" t="s">
+        <v>226</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G22" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="28" t="s">
-        <v>195</v>
-      </c>
-      <c r="F22" s="28"/>
-    </row>
-    <row r="23" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H22" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="I22" s="28"/>
+    </row>
+    <row r="23" spans="2:9" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="27"/>
-      <c r="C23" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="D23" s="29" t="s">
+      <c r="C23" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="D23" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G23" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="F23" s="28"/>
-    </row>
-    <row r="24" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H23" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="I23" s="28"/>
+    </row>
+    <row r="24" spans="2:9" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="27"/>
-      <c r="C24" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="D24" s="29" t="s">
+      <c r="C24" s="37" t="s">
+        <v>228</v>
+      </c>
+      <c r="D24" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G24" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="F24" s="28"/>
-    </row>
-    <row r="25" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H24" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="I24" s="28"/>
+    </row>
+    <row r="25" spans="2:9" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="27"/>
       <c r="C25" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="D25" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G25" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="I25" s="28"/>
+    </row>
+    <row r="26" spans="2:9" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="27"/>
+      <c r="C26" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="D26" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G26" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="I26" s="28"/>
+    </row>
+    <row r="27" spans="2:9" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="27"/>
+      <c r="C27" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="D27" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G27" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="I27" s="28"/>
+    </row>
+    <row r="28" spans="2:9" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="27"/>
+      <c r="C28" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="D28" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G28" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="I28" s="28"/>
+    </row>
+    <row r="29" spans="2:9" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="27"/>
+      <c r="C29" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="D29" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G29" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="I29" s="28"/>
+    </row>
+    <row r="30" spans="2:9" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="27"/>
+      <c r="C30" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="D30" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G30" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="I30" s="28"/>
+    </row>
+    <row r="31" spans="2:9" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="27"/>
+      <c r="C31" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="D31" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G31" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="I31" s="28"/>
+    </row>
+    <row r="32" spans="2:9" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="27"/>
+      <c r="C32" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="D32" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G32" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="I32" s="28"/>
+    </row>
+    <row r="33" spans="2:9" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="27"/>
+      <c r="C33" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="D33" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="E33" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G33" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="I33" s="28"/>
+    </row>
+    <row r="34" spans="2:9" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="27"/>
+      <c r="C34" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="D34" s="37" t="s">
+        <v>211</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G34" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="I34" s="28"/>
+    </row>
+    <row r="35" spans="2:9" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="27"/>
+      <c r="C35" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="D35" s="37" t="s">
+        <v>211</v>
+      </c>
+      <c r="E35" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G35" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="I35" s="28"/>
+    </row>
+    <row r="36" spans="2:9" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="27"/>
+      <c r="C36" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="D36" s="37" t="s">
+        <v>211</v>
+      </c>
+      <c r="E36" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G36" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="I36" s="28"/>
+    </row>
+    <row r="37" spans="2:9" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="27"/>
+      <c r="C37" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="D25" s="29" t="s">
+      <c r="D37" s="37" t="s">
+        <v>211</v>
+      </c>
+      <c r="E37" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G37" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="28" t="s">
-        <v>198</v>
-      </c>
-      <c r="F25" s="28"/>
-    </row>
-    <row r="26" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="27"/>
-      <c r="C26" s="30" t="s">
+      <c r="H37" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="I37" s="28"/>
+    </row>
+    <row r="38" spans="2:9" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="27"/>
+      <c r="C38" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="D26" s="29" t="s">
+      <c r="D38" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="E38" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G38" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="30" t="s">
-        <v>199</v>
-      </c>
-      <c r="F26" s="28"/>
-    </row>
-    <row r="27" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="27"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-    </row>
-    <row r="28" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="27"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-    </row>
-    <row r="29" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="27"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-    </row>
-    <row r="30" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="27"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-    </row>
-    <row r="31" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="27"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-    </row>
-    <row r="32" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="27"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-    </row>
-    <row r="33" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="27"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-    </row>
-    <row r="34" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="27"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-    </row>
-    <row r="35" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="27"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-    </row>
-    <row r="36" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="27"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-    </row>
-    <row r="37" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="27"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-    </row>
-    <row r="38" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="27"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-    </row>
-    <row r="39" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H38" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="I38" s="28"/>
+    </row>
+    <row r="39" spans="2:9" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="27"/>
       <c r="C39" s="28"/>
-      <c r="D39" s="29"/>
+      <c r="D39" s="28"/>
       <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-    </row>
-    <row r="40" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="27"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-    </row>
-    <row r="41" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="27"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-    </row>
-    <row r="42" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="27"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D42">
+  <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="D6:D39">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3F97BFC3-E011-E14C-B3E6-727015FDF556}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G39">
       <formula1>"高,中,低"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E39">
+      <formula1>"Query,Mutation"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F39">
+      <formula1>"未开始,正在开发,未测试,已完成,已废弃"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3F97BFC3-E011-E14C-B3E6-727015FDF556}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D6:D39</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/mx/apps/tools/family-fee/design/前后端接口设计.xlsx
+++ b/mx/apps/tools/family-fee/design/前后端接口设计.xlsx
@@ -32,57 +32,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="249">
   <si>
     <t>DELETE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>GET</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>POST</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>应用场景</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>RestFul请求方式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>获取数据</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>删除操作</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>示例</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>提交数据，如插入操作</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>修改数据</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>PUT</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>无</t>
     <rPh sb="0" eb="1">
       <t>wu</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>GET</t>
@@ -119,15 +119,15 @@
   </si>
   <si>
     <t>已完成</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>正在开发</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>未开始</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>PUT</t>
@@ -139,7 +139,7 @@
   "Object": "data" ,
   "Object": "pagination" 
 }</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">rerrorCode为返回结果：成功为0、失败为非0；errorMessage为出错信息，‘data为数据，此处为object，后边世界接口设计过程返回只需要描述data部分
@@ -153,25 +153,25 @@
     <rPh sb="24" eb="25">
       <t>fei ling</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>请求方式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>模块</t>
     <rPh sb="0" eb="1">
       <t>mo k</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>系统</t>
     <rPh sb="0" eb="1">
       <t>xi t</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>DELETE</t>
@@ -184,7 +184,7 @@
     <rPh sb="1" eb="2">
       <t>ce shi</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>使用用户名/口令登入系统</t>
@@ -203,43 +203,43 @@
     <rPh sb="10" eb="11">
       <t>xi t</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>@Path("stores")
 @GET
 Public Response getStore(@QueryParam (“uuid”) String uuid){}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>@Path("stores/{uuid}")
 @DELETE
 Public Response deleteStore(@PathParam(“uuid”) String uuid){}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>@Path("stores/{uuid}")
 @PUT
 Public Response updateStore(@PathParam(“uuid”) String uuid,StoreInfoFormVO vo){}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>@Path("stores/new")
 @POST
 Public Response createStore(StoreInfoFormVO vo){}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Restful请求
 返回规范</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>注意：</t>
     <rPh sb="0" eb="1">
       <t>zhu yi</t>
     </rPh>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>除登录请求外，所有的RESTful请求必须在HTTP请求头中加入“token”或“Authorization”，其值为登录成功后本地缓存的token。</t>
@@ -312,7 +312,7 @@
     <rPh sb="68" eb="69">
       <t>de</t>
     </rPh>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>注册并登入系统</t>
@@ -328,7 +328,7 @@
     <rPh sb="5" eb="6">
       <t>xi t</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>未开始</t>
@@ -347,7 +347,7 @@
     <rPh sb="4" eb="5">
       <t>ke mu</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>添加一个新科目</t>
@@ -363,7 +363,7 @@
     <rPh sb="5" eb="6">
       <t>ke mu</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>修改指定科目</t>
@@ -376,7 +376,7 @@
     <rPh sb="4" eb="5">
       <t>ke m</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>删除指定科目</t>
@@ -389,21 +389,21 @@
     <rPh sb="4" eb="5">
       <t>ke m</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>科目</t>
     <rPh sb="0" eb="1">
       <t>ke mu</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>家庭</t>
     <rPh sb="0" eb="1">
       <t>jia t</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>家庭二维码，便于加入家庭</t>
@@ -422,7 +422,7 @@
     <rPh sb="10" eb="11">
       <t>jia t</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>加入指定家庭</t>
@@ -435,7 +435,7 @@
     <rPh sb="4" eb="5">
       <t>jia t</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>创建新家庭</t>
@@ -448,7 +448,7 @@
     <rPh sb="3" eb="4">
       <t>jia ting</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>获取指定家庭信息</t>
@@ -464,14 +464,14 @@
     <rPh sb="6" eb="7">
       <t>xin xi</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>预算</t>
     <rPh sb="0" eb="1">
       <t>yu suan</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>获取年度预算</t>
@@ -484,7 +484,7 @@
     <rPh sb="4" eb="5">
       <t>yu suan</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>获取所有收入</t>
@@ -497,14 +497,14 @@
     <rPh sb="4" eb="5">
       <t>shou ru</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>收入</t>
     <rPh sb="0" eb="1">
       <t>shou ru</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>获取指定年度收入</t>
@@ -520,7 +520,7 @@
     <rPh sb="6" eb="7">
       <t>shou r</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>记录一笔新收入</t>
@@ -536,7 +536,7 @@
     <rPh sb="5" eb="6">
       <t>shou ru</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>修改指定收入</t>
@@ -549,7 +549,7 @@
     <rPh sb="4" eb="5">
       <t>shou ru</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>删除指定收入</t>
@@ -562,14 +562,14 @@
     <rPh sb="4" eb="5">
       <t>shou r</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>支出</t>
     <rPh sb="0" eb="1">
       <t>zhi chu</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>获取所有支出</t>
@@ -582,7 +582,7 @@
     <rPh sb="4" eb="5">
       <t>zhi chu</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>获取指定年度支出</t>
@@ -598,7 +598,7 @@
     <rPh sb="6" eb="7">
       <t>zhi chu</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>获取指定月份支出</t>
@@ -614,7 +614,7 @@
     <rPh sb="6" eb="7">
       <t>zhi chu</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>记录一笔新支出</t>
@@ -630,7 +630,7 @@
     <rPh sb="5" eb="6">
       <t>zhi chu</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>修改指定支出</t>
@@ -643,7 +643,7 @@
     <rPh sb="4" eb="5">
       <t>zhi chu</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>删除指定支出</t>
@@ -656,14 +656,14 @@
     <rPh sb="4" eb="5">
       <t>zhi chu</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>统计</t>
     <rPh sb="0" eb="1">
       <t>tong ji</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>月度账单</t>
@@ -673,7 +673,7 @@
     <rPh sb="2" eb="3">
       <t>zhang dan</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>年度账单</t>
@@ -683,7 +683,7 @@
     <rPh sb="2" eb="3">
       <t>zhang dan</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>低</t>
@@ -702,7 +702,7 @@
     <rPh sb="6" eb="7">
       <t>xiang</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>修改指定预算项</t>
@@ -718,7 +718,7 @@
     <rPh sb="6" eb="7">
       <t>xiang</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>添加一个新预算项</t>
@@ -737,7 +737,7 @@
     <rPh sb="7" eb="8">
       <t>xiang</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>获取本周支出</t>
@@ -750,63 +750,63 @@
     <rPh sb="4" eb="5">
       <t>zhi chu</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>/rest/v1/families/new</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>/rest/v1/families/{familyId}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>/rest/v1/families/{familyId}/join</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>/rest/v1/courses</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>/rest/v1/courses/new</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>/rest/v1/courses/{courseId}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>/rest/v1/budgets/new</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>/rest/v1/budgets/{budgetId}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>/rest/v1/incomes/new</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>/rest/v1/incomes/{incomeId}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>/rest/v1/spendings/new</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>/rest/v1/spendings/{spendingId}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>/rest/v1/accounts/{accountId}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>/rest/v1/accounts/registry</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>查看指定账户的访问历史</t>
@@ -828,7 +828,7 @@
     <rPh sb="9" eb="10">
       <t>li shi</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>获取指定账户信息</t>
@@ -844,7 +844,7 @@
     <rPh sb="6" eb="7">
       <t>xin xi</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>修改账户信息</t>
@@ -857,7 +857,7 @@
     <rPh sb="4" eb="5">
       <t>xin xi</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>修改指定家庭信息</t>
@@ -873,7 +873,7 @@
     <rPh sb="6" eb="7">
       <t>xin xi</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>获取指定的科目</t>
@@ -889,23 +889,23 @@
     <rPh sb="5" eb="6">
       <t>ke mu</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>/rest/v1/incomes/families/{familyId}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>/rest/v1/spendings/families/{familyId}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>/rest/v1/bills/families/{familyId}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>/rest/v1/budgets/families/{familyId}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -918,7 +918,7 @@
 'province':'',
 'city': ''
 }</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -941,7 +941,7 @@
 'province':'',
 'city':''
 }</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>[{
@@ -955,14 +955,14 @@
 'latitude':0.0,
 'longitude': 0.0
 }]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>无</t>
     <rPh sb="0" eb="1">
       <t>w</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -977,7 +977,7 @@
 "type": "",
 "owner": {account}
 }</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -996,7 +996,7 @@
 "isOwner": true
 }]
 }</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -1011,7 +1011,7 @@
 "family": {family},
 "course": {course}
 }</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -1027,7 +1027,7 @@
 "course": {course},
 "owner": {account}
 }</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>[{
@@ -1043,7 +1043,7 @@
 "course": {course},
 "owner": {account}
 }]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>获取指定openId所属的家庭信息</t>
@@ -1065,11 +1065,11 @@
     <rPh sb="15" eb="16">
       <t>xin xi</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>/rest/v1/family</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>获取指定账户和家庭信息，使用openId</t>
@@ -1094,7 +1094,7 @@
     <rPh sb="12" eb="13">
       <t>shi yong</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>根据指定的openId，获取对应的账户和家庭信息</t>
@@ -1128,46 +1128,46 @@
     <rPh sb="22" eb="23">
       <t>xin xi</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>{
 "account": {account},
 "family": {family}
 }</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>userCode=openId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>userCode=openId&amp;startTime=long&amp;endTime=long</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>userCode=openId&amp;year=int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>userCode=openId&amp;year=int&amp;month=int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>userCode=openId&amp;week=now</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>/rest/v1/summary</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>/rest/v1/account</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>/rest/v1/logs</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -1185,7 +1185,7 @@
 'city': '',
 'gender':'MALE'
 }</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -1195,7 +1195,7 @@
 "desc": "",
 "avatarUrl": ""
 }</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -1207,7 +1207,7 @@
 "type": "",
 "ownerId": ""
 }</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -1219,7 +1219,7 @@
 "year": 2019,
 "money": 0.0
 }</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -1232,7 +1232,7 @@
 "money": 0.0,
 "occurTime": 0
 }</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>未测试</t>
@@ -1257,15 +1257,15 @@
     <rPh sb="9" eb="10">
       <t>ke mu</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>/rest/v1/courses/families/{familyId}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>userCode=openId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -1275,7 +1275,7 @@
 "desc": "",
 "type": ""
 }</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>修改家庭头像</t>
@@ -1288,7 +1288,7 @@
     <rPh sb="4" eb="5">
       <t>tou x</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>获取家庭头像</t>
@@ -1301,7 +1301,7 @@
     <rPh sb="4" eb="5">
       <t>tou x</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>获取家庭二维码</t>
@@ -1314,23 +1314,23 @@
     <rPh sb="4" eb="5">
       <t>er wei ma</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>/rest/v1/families/{familyId}/avatar</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>/rest/v1/families/{familyId}/qrcode</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>File</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>String</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>上传一个图片文件作为家庭头像，并返回头像的URL供后续保存</t>
@@ -1376,7 +1376,7 @@
     <rPh sb="27" eb="28">
       <t>bao cun</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>获取家庭头像，以流式返回文件</t>
@@ -1398,7 +1398,7 @@
     <rPh sb="12" eb="13">
       <t>wen j</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>获取家庭二维码，以流式返回文件</t>
@@ -1423,7 +1423,7 @@
     <rPh sb="13" eb="14">
       <t>wen j</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>修改账户头像</t>
@@ -1436,7 +1436,7 @@
     <rPh sb="4" eb="5">
       <t>tou x</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>获取账户头像</t>
@@ -1449,11 +1449,11 @@
     <rPh sb="4" eb="5">
       <t>tou x</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>/rest/v1/accounts/{accountId}/avatar</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>上传一张图片作为账户投入，并返回URL供后续操作</t>
@@ -1487,7 +1487,7 @@
     <rPh sb="22" eb="23">
       <t>cao z</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>以流式返回文件</t>
@@ -1503,37 +1503,37 @@
     <rPh sb="5" eb="6">
       <t>wen j</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>URL</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Method</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>POST</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>http://ip:port/rest/v1/graph</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>POST数据</t>
     <rPh sb="4" eb="5">
       <t>shu ju</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
     <rPh sb="0" eb="1">
       <t>bei zhu</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>根据openId或者账户信息</t>
@@ -1549,7 +1549,7 @@
     <rPh sb="12" eb="13">
       <t>xin xi</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>根据id获取账户信息</t>
@@ -1565,7 +1565,7 @@
     <rPh sb="8" eb="9">
       <t>xin xi</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>根据accountId获取相关日志列表</t>
@@ -1584,7 +1584,7 @@
     <rPh sb="17" eb="18">
       <t>lie b</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>获取家庭年度预算</t>
@@ -1600,7 +1600,7 @@
     <rPh sb="6" eb="7">
       <t>yu suan</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>获取家庭所有科目</t>
@@ -1616,7 +1616,7 @@
     <rPh sb="6" eb="7">
       <t>ke m</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>根据id获取科目信息</t>
@@ -1632,14 +1632,14 @@
     <rPh sb="8" eb="9">
       <t>xin xi</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>家庭</t>
     <rPh sb="0" eb="1">
       <t>jia ting</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>根据id获取家庭信息</t>
@@ -1655,7 +1655,7 @@
     <rPh sb="8" eb="9">
       <t>xin xi</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>根据familyId获取上周支出明细</t>
@@ -1674,7 +1674,7 @@
     <rPh sb="16" eb="17">
       <t>ming xi</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>根据familyId获取本周支出明细</t>
@@ -1690,7 +1690,7 @@
     <rPh sb="14" eb="15">
       <t>zhi chu</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>根据familyId获取年度/月份支出明细</t>
@@ -1709,7 +1709,7 @@
     <rPh sb="17" eb="18">
       <t>zhi chu</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>根据accountId获取上周支出明细</t>
@@ -1725,7 +1725,7 @@
     <rPh sb="15" eb="16">
       <t>zhi chu</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>根据familyId获取年度支出明细</t>
@@ -1741,7 +1741,7 @@
     <rPh sb="14" eb="15">
       <t>zhi chu</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>根据accountId获取本周支出明细</t>
@@ -1757,7 +1757,7 @@
     <rPh sb="15" eb="16">
       <t>zhi chu</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>根据accountId获取年度/月份支出明细</t>
@@ -1776,7 +1776,7 @@
     <rPh sb="18" eb="19">
       <t>zhi chu</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>根据accountId获取年度支出明细</t>
@@ -1792,7 +1792,7 @@
     <rPh sb="15" eb="16">
       <t>zhi chu</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>根据familyId获取年度/月份收入明细</t>
@@ -1811,7 +1811,7 @@
     <rPh sb="17" eb="18">
       <t>shou r</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>根据familyId获取年度收入明细</t>
@@ -1827,7 +1827,7 @@
     <rPh sb="14" eb="15">
       <t>shou r</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>根据accountId获取年度/月份收入明细</t>
@@ -1846,7 +1846,7 @@
     <rPh sb="18" eb="19">
       <t>shou r</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>根据accountId获取年度收入明细</t>
@@ -1862,7 +1862,7 @@
     <rPh sb="15" eb="16">
       <t>shou ru</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>根据familyId获取收入和支出总览情况</t>
@@ -1887,7 +1887,7 @@
     <rPh sb="19" eb="20">
       <t>qing k</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>根据accountId获取收入和支出总览情况</t>
@@ -1912,94 +1912,94 @@
     <rPh sb="20" eb="21">
       <t>qing k</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>query{family(id:''){id name avatarUrl desc members[{id role ffeeAccount{id openId nickname avatarUrl mobile} isOwner}]}}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>query{account(input: {id: ''}){id openId nickname mobile gender avatarUrl city}}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>query{account(input: {openId: ''}){id openId nickname mobile gender avatarUrl city}}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>query{budgetList(input:{familyId: '', year=2018}){id year money desc course{id code name order isPublic} family{id name avatarUrl}}}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>query{course(input:{id: ''}){id type code name desc order isPublic}}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>query{accessLogList(input:{accountId: '',familyId: ''}){id conent latitude longitude account{id openId nickname mobile gender avatarUrl}}}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>query{accountIncomeList(input:{accountId: '', year=2018}){id money occurTime desc course{id code name type} family{id name avatarUrl}}}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>query{accountIncomeList(input:{accountId: '', year=2019, month=10}){id money occurTime desc course{id code name type} family{id name avatarUrl}}}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>query{familyIncomeList(input:{familyId: '', year=2018}){id money occurTime desc course{id code name type} family{id name avatarUrl} owner{id openId nickname avatarUrl}}}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>query{familyIncomeList(input: {familyId: '', year=2019, month=10}){id money occurTime desc course{id code name type} family{id name avatarUrl} owner{id openId nickname avatarUrl}}}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>query{accountSpendingList(input: {accountId: '', year=2018}){id money occurTime desc course{id code name type} family{id name avatarUrl}}}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>query{accountSpendingList(input: {accountId: '', year=2018, month=10}){id money occurTime desc course{id code name type} family{id name avatarUrl}}}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>query{accountSpendingList(input: {accountId: '', week=0}){id money occurTime desc course{id code name type} family{id name avatarUrl}}}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>query{accountSpendingList(input: {accountId: '', week=-1}){id money occurTime desc course{id code name type} family{id name avatarUrl}}}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>query{accountMoneySummary(accountId: ''){id openId nickname avatarUrl family{id name avatarUrl} recent{budgets:[{year money}] incomes[{year money}] spendings[{year money}]} current{income{total byMonth[money]} spendings{total byMonth[money]}}}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>query{familySpendingList(input: {familyId: '', year=2018}){id money occurTime desc course{id code name type} family{id name avatarUrl} owner{id openId nickname avatarUrl}}}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>query{familySpendingList(input: {familyId: '', year=2018, month=10}){id money occurTime desc course{id code name type} family{id name avatarUrl} owner{id openId nickname avatarUrl}}}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>query{familySpendingList(input: {familyId: '', week=0}){id money occurTime desc course{id code name type} family{id name avatarUrl} owner{id openId nickname avatarUrl}}}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>query{familySpendingList(input: {familyId: '', week: -1}){id money occurTime desc course{id code name type} family{id name avatarUrl} owner{id openId nickname avatarUrl}}}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>query{familyMoneySummary(familyId: ''){id name avatarUrl recent{budgets[{year money}] incomes{total byMonth[money] byMember[{nickname money}]} spendings{total byMonth[money] byMember[{nickname money}]}} current{budget income{total byMonth[money] byMember[{nickname money}]} spending{total byMonth[money] byMember[{nickname money}]}}}}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>类别</t>
     <rPh sb="0" eb="1">
       <t>lei b</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Query</t>
@@ -2009,10 +2009,7 @@
     <rPh sb="0" eb="1">
       <t>zhuang t</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>正在开发</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>接口内容</t>
@@ -2022,59 +2019,59 @@
     <rPh sb="2" eb="3">
       <t>nei r</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>account(input: AccountQueryInput!): AccountSummary</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>accessLogList(input: AccessLogQueryInput!): [AccessLog]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>budgetItemList(input: BudgetQueryInput!): [BudgetItem]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>courseList(familyId: String): [Course]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>query{courseList(familyId: ''){id type code name desc order isPublic}}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>course(id: String!): Course</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>family(id: String!): Family</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>accountIncomeList(input: AccountMoneyQueryInput!): [Income]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>familyIncomeList(input: FamilyMoneyQueryInput!): [Income]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>accountSpendingList(input: AccountMoneyQueryInput!): [Spending]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>familySpendingList(input: FamilyMoneyQueryInput!): [Spending]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>accountMoneySummary(accountId: String!): AccountMoneySummary</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>familyMoneySummary(familyId: String!): FamilyMoneySummary</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>注册账户信息</t>
@@ -2087,11 +2084,11 @@
     <rPh sb="4" eb="5">
       <t>xin x</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>saveAccount(op: OperateType!, input: AccountInfoInput!): AccountSummary</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Mutation</t>
@@ -2110,7 +2107,7 @@
     <rPh sb="8" eb="9">
       <t>xin xi</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>根据id修改预算条目</t>
@@ -2126,11 +2123,11 @@
     <rPh sb="8" eb="9">
       <t>tiao mu</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>saveBudgetItem(op: OperateType!, input: BudgetItemInfoInput): BudgetItem</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>根据id逻辑删除预算条目</t>
@@ -2149,11 +2146,11 @@
     <rPh sb="10" eb="11">
       <t>tiao mu</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>saveCourse(op: OperateType!, input: CourseInfoInput): Course</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>根据id修改家庭信息</t>
@@ -2169,7 +2166,7 @@
     <rPh sb="8" eb="9">
       <t>xin xi</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>根据id加入家庭</t>
@@ -2182,11 +2179,11 @@
     <rPh sb="6" eb="7">
       <t>jia t</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>saveFamily(op: OperateType!, input: FamilyInfoInput): Family</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>新增或根据id修改收入信息</t>
@@ -2208,7 +2205,7 @@
     <rPh sb="11" eb="12">
       <t>xin xi</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>根据id删除收入信息</t>
@@ -2224,7 +2221,7 @@
     <rPh sb="8" eb="9">
       <t>xin xi</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>新增或根据id修改支出信息</t>
@@ -2246,7 +2243,7 @@
     <rPh sb="11" eb="12">
       <t>xin xi</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>根据id删除支出信息</t>
@@ -2262,31 +2259,27 @@
     <rPh sb="8" eb="9">
       <t>xin xi</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>saveIncome(op: OperateType!, input: MoneyInfoInput): Income</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>saveSpending(op: OperateType!, input: MoneyInfoInput): Spending</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>mutation{saveAccount(op: "REGISTRY", input: {openId: '', nickname: '', mobile: '', email: '', wx: '', qq: '', wb: '', avatarUrl: '', country:'', province: '', ciity: ''}){id openId nickname mobile email avatarUrl}}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>mutation{saveBudgetItem(op: "SAVE", input: {id: '', courseId: '', familyId: '', desc: '', year: 0, ownerId: '', type: '', valid: true}){id course{id code name} family{id name avatarUrl} desc year owner{id nickname avatarUrl} type valid}}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>mutation{saveBudgetItem(op: "DELTE", input: {id: ''}){id course{id code name} family{id name avatarUrl} desc year owner{id nickname avatarUrl} type valid}}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>muation{saveCourse(op: 'SAVE', input: {id: '',code: '', name: '', desc: '', ownerId: '', type: '', valid: true}){id code name desc type isPublic}}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>根据id修改科目信息</t>
@@ -2302,7 +2295,7 @@
     <rPh sb="8" eb="9">
       <t>xin xi</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>根据id逻辑删除科目信息</t>
@@ -2321,46 +2314,38 @@
     <rPh sb="10" eb="11">
       <t>xin xi</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>muation{saveCourse(op: 'DELETE', input: {id: ''}){id code name desc type isPublic}}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>mutation{saveFamily(op: 'SAVE', input: {id: '', name: '', desc: '', avatarUrl: '',members: [{id: '', role: '', accountId: '', isOwner: true}] valid: true}){id name desc avatarUrl members{id role isOwner account{id nickname openId avatarUrl}}}}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>mutation{saveFamily(op: 'JOIN', input: {id: '',members: [{id: '', role: '', accountId: '', isOwner: true}]}){id name desc avatarUrl members{id role isOwner account{id nickname openId avatarUrl}}}}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>mutation{saveIncome(op: 'SAVE', input: {id:'', familyId: '', courseId: '', ownerId: '', desc: '', money: 0.0, occurTime: 0}){id family{id name avatarUrl} course{id code name} money occurTime desc owner{id nickname avatarUrl}}}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>mutation{saveIncome(op: 'DELETE', input: {id:''}){id family{id name avatarUrl} course{id code name} money occurTime desc owner{id nickname avatarUrl}}}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>mutation{saveSpending(op: 'SAVE', input: {id:'', familyId: '', courseId: '', ownerId: '', desc: '', money: 0.0, occurTime: 0}){id family{id name avatarUrl} course{id code name} money occurTime desc owner{id nickname avatarUrl}}}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>mutation{saveSpending(op: 'DELETE', input: {id:''}){id family{id name avatarUrl} course{id code name} money occurTime desc owner{id nickname avatarUrl}}}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>收支</t>
     <rPh sb="0" eb="1">
       <t>shou zhi</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>mutation{saveAccount(op: "SAVE", input: {id: '', nickname: '', mobile: '', email: '', wx: '', qq: '', wb: '', avatarUrl: '', country:'', province: '', ciity: ''}){id openId nickname mobile email avatarUrl}}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>已完成</t>
@@ -2382,7 +2367,7 @@
     <rPh sb="21" eb="22">
       <t>ke mu</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>如果year&lt;=0则取当年</t>
@@ -2398,7 +2383,7 @@
     <rPh sb="11" eb="12">
       <t>dang n</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>各模块写操作日志尚未完成</t>
@@ -2423,19 +2408,39 @@
     <rPh sb="10" eb="11">
       <t>wan ch</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>muation{saveCourse(op: 'SAVE', input: {parentId: '', id: '',code: '', name: '', desc: '', ownerId: '', type: '', valid: true}){id code name desc type isPublic}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mutation{saveFamily(input: {id: '', name: '', desc: '', avatarUrl: '',members: [{id: '', role: '', accountId: '', isOwner: true}] valid: true}){id name desc avatarUrl members{id role isOwner account{id nickname openId avatarUrl}}}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mutation{saveFamilyMember(input: {familyId: '', id: '', role: '', accountId: '', isOwner: true}){id name desc avatarUrl members{id role isOwner account{id nickname openId avatarUrl}}}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2641,12 +2646,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2670,13 +2675,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2685,7 +2690,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2694,7 +2699,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2709,54 +2714,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3139,7 +3147,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -4380,7 +4388,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A6:J45"/>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D46:D47">
       <formula1>"未开始,正在开发,已完成,已废弃"</formula1>
@@ -4405,10 +4413,10 @@
   <dimension ref="B1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D12" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D18" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4452,7 +4460,7 @@
         <v>15</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E5" s="24" t="s">
         <v>196</v>
@@ -4478,13 +4486,13 @@
         <v>155</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E6" s="28" t="s">
         <v>197</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G6" s="29" t="s">
         <v>13</v>
@@ -4500,13 +4508,13 @@
         <v>154</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E7" s="28" t="s">
         <v>197</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G7" s="29" t="s">
         <v>13</v>
@@ -4522,13 +4530,13 @@
         <v>156</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E8" s="28" t="s">
         <v>197</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="G8" s="29" t="s">
         <v>13</v>
@@ -4537,50 +4545,50 @@
         <v>181</v>
       </c>
       <c r="I8" s="37" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="27"/>
       <c r="C9" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="D9" s="37" t="s">
         <v>214</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="E9" s="28" t="s">
         <v>215</v>
       </c>
-      <c r="E9" s="28" t="s">
-        <v>216</v>
-      </c>
       <c r="F9" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G9" s="29" t="s">
         <v>13</v>
       </c>
       <c r="H9" s="37" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I9" s="28"/>
     </row>
     <row r="10" spans="2:9" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="27"/>
       <c r="C10" s="37" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D10" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="E10" s="28" t="s">
         <v>215</v>
       </c>
-      <c r="E10" s="28" t="s">
-        <v>216</v>
-      </c>
       <c r="F10" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G10" s="29" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="37" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="I10" s="28"/>
     </row>
@@ -4592,13 +4600,13 @@
         <v>157</v>
       </c>
       <c r="D11" s="37" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E11" s="28" t="s">
         <v>197</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>128</v>
+        <v>242</v>
       </c>
       <c r="G11" s="29" t="s">
         <v>13</v>
@@ -4607,50 +4615,50 @@
         <v>179</v>
       </c>
       <c r="I11" s="37" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="27"/>
       <c r="C12" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="D12" s="37" t="s">
         <v>218</v>
       </c>
-      <c r="D12" s="37" t="s">
-        <v>219</v>
-      </c>
       <c r="E12" s="28" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>128</v>
+        <v>242</v>
       </c>
       <c r="G12" s="29" t="s">
         <v>13</v>
       </c>
       <c r="H12" s="37" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I12" s="28"/>
     </row>
     <row r="13" spans="2:9" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="27"/>
       <c r="C13" s="37" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>128</v>
+        <v>242</v>
       </c>
       <c r="G13" s="29" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="37" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I13" s="28"/>
     </row>
@@ -4662,22 +4670,22 @@
         <v>158</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E14" s="28" t="s">
         <v>197</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G14" s="29" t="s">
         <v>13</v>
       </c>
       <c r="H14" s="37" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I14" s="37" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -4686,13 +4694,13 @@
         <v>159</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E15" s="28" t="s">
         <v>197</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G15" s="29" t="s">
         <v>13</v>
@@ -4705,44 +4713,44 @@
     <row r="16" spans="2:9" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="27"/>
       <c r="C16" s="37" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>128</v>
+        <v>242</v>
       </c>
       <c r="G16" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="37" t="s">
-        <v>234</v>
+      <c r="H16" s="40" t="s">
+        <v>246</v>
       </c>
       <c r="I16" s="28"/>
     </row>
     <row r="17" spans="2:9" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="27"/>
       <c r="C17" s="37" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>128</v>
+        <v>242</v>
       </c>
       <c r="G17" s="29" t="s">
         <v>13</v>
       </c>
       <c r="H17" s="37" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I17" s="28"/>
     </row>
@@ -4754,13 +4762,13 @@
         <v>161</v>
       </c>
       <c r="D18" s="37" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E18" s="28" t="s">
         <v>197</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G18" s="29" t="s">
         <v>13</v>
@@ -4773,59 +4781,59 @@
     <row r="19" spans="2:9" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="27"/>
       <c r="C19" s="37" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D19" s="37" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G19" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="37" t="s">
-        <v>238</v>
+      <c r="H19" s="40" t="s">
+        <v>247</v>
       </c>
       <c r="I19" s="28"/>
     </row>
     <row r="20" spans="2:9" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="27"/>
       <c r="C20" s="37" t="s">
+        <v>222</v>
+      </c>
+      <c r="D20" s="37" t="s">
         <v>223</v>
       </c>
-      <c r="D20" s="37" t="s">
-        <v>224</v>
-      </c>
       <c r="E20" s="28" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>128</v>
+        <v>242</v>
       </c>
       <c r="G20" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="H20" s="37" t="s">
-        <v>239</v>
+      <c r="H20" s="40" t="s">
+        <v>248</v>
       </c>
       <c r="I20" s="28"/>
     </row>
     <row r="21" spans="2:9" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="39" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C21" s="37" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D21" s="37" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>128</v>
@@ -4834,20 +4842,20 @@
         <v>13</v>
       </c>
       <c r="H21" s="37" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="I21" s="28"/>
     </row>
     <row r="22" spans="2:9" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="27"/>
       <c r="C22" s="37" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D22" s="37" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>128</v>
@@ -4856,20 +4864,20 @@
         <v>13</v>
       </c>
       <c r="H22" s="37" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="I22" s="28"/>
     </row>
     <row r="23" spans="2:9" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="27"/>
       <c r="C23" s="37" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D23" s="37" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>128</v>
@@ -4878,20 +4886,20 @@
         <v>13</v>
       </c>
       <c r="H23" s="37" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="I23" s="28"/>
     </row>
     <row r="24" spans="2:9" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="27"/>
       <c r="C24" s="37" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D24" s="37" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>128</v>
@@ -4900,7 +4908,7 @@
         <v>13</v>
       </c>
       <c r="H24" s="37" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="I24" s="28"/>
     </row>
@@ -4910,7 +4918,7 @@
         <v>173</v>
       </c>
       <c r="D25" s="37" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E25" s="28" t="s">
         <v>197</v>
@@ -4932,7 +4940,7 @@
         <v>172</v>
       </c>
       <c r="D26" s="37" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E26" s="28" t="s">
         <v>197</v>
@@ -4954,7 +4962,7 @@
         <v>171</v>
       </c>
       <c r="D27" s="37" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E27" s="28" t="s">
         <v>197</v>
@@ -4976,7 +4984,7 @@
         <v>170</v>
       </c>
       <c r="D28" s="37" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E28" s="28" t="s">
         <v>197</v>
@@ -4998,7 +5006,7 @@
         <v>169</v>
       </c>
       <c r="D29" s="37" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E29" s="28" t="s">
         <v>197</v>
@@ -5020,7 +5028,7 @@
         <v>168</v>
       </c>
       <c r="D30" s="37" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E30" s="28" t="s">
         <v>197</v>
@@ -5042,7 +5050,7 @@
         <v>167</v>
       </c>
       <c r="D31" s="37" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E31" s="28" t="s">
         <v>197</v>
@@ -5064,7 +5072,7 @@
         <v>165</v>
       </c>
       <c r="D32" s="37" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E32" s="28" t="s">
         <v>197</v>
@@ -5086,7 +5094,7 @@
         <v>175</v>
       </c>
       <c r="D33" s="38" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E33" s="28" t="s">
         <v>197</v>
@@ -5108,7 +5116,7 @@
         <v>166</v>
       </c>
       <c r="D34" s="37" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E34" s="28" t="s">
         <v>197</v>
@@ -5130,7 +5138,7 @@
         <v>164</v>
       </c>
       <c r="D35" s="37" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E35" s="28" t="s">
         <v>197</v>
@@ -5152,7 +5160,7 @@
         <v>163</v>
       </c>
       <c r="D36" s="37" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E36" s="28" t="s">
         <v>197</v>
@@ -5174,7 +5182,7 @@
         <v>162</v>
       </c>
       <c r="D37" s="37" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E37" s="28" t="s">
         <v>197</v>
@@ -5196,7 +5204,7 @@
         <v>174</v>
       </c>
       <c r="D38" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E38" s="28" t="s">
         <v>197</v>
@@ -5223,7 +5231,7 @@
       <c r="I39" s="28"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="D6:D39">
     <cfRule type="dataBar" priority="2">
       <dataBar>
